--- a/1.24 開洗分狀況(08-00).xlsx
+++ b/1.24 開洗分狀況(08-00).xlsx
@@ -164,13 +164,13 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>店家數: 94</t>
+          <t>店家數: 92</t>
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
@@ -650,2042 +650,2042 @@
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>工廠測試</t>
+          <t>好朋友</t>
         </is>
       </c>
       <c r="B5" s="10" t="n">
-        <v>0</v>
+        <v>780100</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12" t="n">
-        <v>0</v>
+        <v>814800</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>-34700</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>-14700</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <v>-20000</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>好朋友</t>
+          <t>新吉星</t>
         </is>
       </c>
       <c r="B6" s="10" t="n">
-        <v>780100</v>
+        <v>6661400</v>
       </c>
       <c r="C6" s="11" t="n">
-        <v>0</v>
+        <v>291500</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>814800</v>
-      </c>
-      <c r="E6" s="13" t="n">
-        <v>-34700</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <v>-14700</v>
-      </c>
-      <c r="G6" s="14" t="n">
-        <v>-20000</v>
+        <v>5732000</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>1220900</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>1233400</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>-12500</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>新吉星</t>
+          <t>百邑</t>
         </is>
       </c>
       <c r="B7" s="10" t="n">
-        <v>6661400</v>
+        <v>845800</v>
       </c>
       <c r="C7" s="11" t="n">
-        <v>291500</v>
+        <v>0</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>5732000</v>
+        <v>832000</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>1220900</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>1233400</v>
+        <v>13800</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>-12200</v>
       </c>
       <c r="G7" s="14" t="n">
-        <v>-12500</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>百邑</t>
+          <t>千弈</t>
         </is>
       </c>
       <c r="B8" s="10" t="n">
-        <v>845800</v>
+        <v>4606800</v>
       </c>
       <c r="C8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>832000</v>
+        <v>3537000</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>13800</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>-12200</v>
-      </c>
-      <c r="G8" s="12" t="n">
-        <v>26000</v>
+        <v>1069800</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>1004800</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>65000</v>
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>千弈</t>
+          <t>黑卡</t>
         </is>
       </c>
       <c r="B9" s="10" t="n">
-        <v>4606800</v>
+        <v>13753100</v>
       </c>
       <c r="C9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>3537000</v>
+        <v>12932300</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1069800</v>
+        <v>820800</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>1004800</v>
-      </c>
-      <c r="G9" s="12" t="n">
-        <v>65000</v>
+        <v>921800</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>-101000</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t>黑卡</t>
+          <t>萬豪</t>
         </is>
       </c>
       <c r="B10" s="10" t="n">
-        <v>13753100</v>
+        <v>4640000</v>
       </c>
       <c r="C10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>12932300</v>
+        <v>4230000</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>820800</v>
+        <v>410000</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>921800</v>
-      </c>
-      <c r="G10" s="14" t="n">
-        <v>-101000</v>
+        <v>574500</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>-164500</v>
       </c>
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>新三國</t>
+          <t>千輝</t>
         </is>
       </c>
       <c r="B11" s="10" t="n">
-        <v>0</v>
+        <v>1072200</v>
       </c>
       <c r="C11" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>0</v>
+        <v>1557500</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <v>-485300</v>
+      </c>
+      <c r="F11" s="12" t="n">
+        <v>-486300</v>
+      </c>
+      <c r="G11" s="14" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>萬豪</t>
+          <t>有澤</t>
         </is>
       </c>
       <c r="B12" s="10" t="n">
-        <v>4640000</v>
+        <v>243800</v>
       </c>
       <c r="C12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>4230000</v>
+        <v>159900</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>410000</v>
+        <v>83900</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>574500</v>
-      </c>
-      <c r="G12" s="14" t="n">
-        <v>-164500</v>
+        <v>86900</v>
+      </c>
+      <c r="G12" s="13" t="n">
+        <v>-3000</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="9" t="inlineStr">
         <is>
-          <t>千輝</t>
+          <t>金卡</t>
         </is>
       </c>
       <c r="B13" s="10" t="n">
-        <v>1072200</v>
+        <v>889000</v>
       </c>
       <c r="C13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>1557500</v>
-      </c>
-      <c r="E13" s="13" t="n">
-        <v>-485300</v>
-      </c>
-      <c r="F13" s="13" t="n">
-        <v>-486300</v>
-      </c>
-      <c r="G13" s="12" t="n">
-        <v>1000</v>
+        <v>701800</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>187200</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>215200</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>-28000</v>
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="9" t="inlineStr">
         <is>
-          <t>有澤</t>
+          <t>名衆</t>
         </is>
       </c>
       <c r="B14" s="10" t="n">
-        <v>243800</v>
+        <v>689600</v>
       </c>
       <c r="C14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>159900</v>
+        <v>620500</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>83900</v>
+        <v>69100</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>86900</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>-3000</v>
+        <v>70100</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>-1000</v>
       </c>
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="9" t="inlineStr">
         <is>
-          <t>金卡</t>
+          <t>鑽石</t>
         </is>
       </c>
       <c r="B15" s="10" t="n">
-        <v>889000</v>
+        <v>258700</v>
       </c>
       <c r="C15" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>701800</v>
+        <v>187400</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>187200</v>
+        <v>71300</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>215200</v>
+        <v>54900</v>
       </c>
       <c r="G15" s="14" t="n">
-        <v>-28000</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>名衆</t>
+          <t>百雀</t>
         </is>
       </c>
       <c r="B16" s="10" t="n">
-        <v>689600</v>
+        <v>3434000</v>
       </c>
       <c r="C16" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>620500</v>
+        <v>2937600</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>69100</v>
+        <v>496400</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>70100</v>
+        <v>340600</v>
       </c>
       <c r="G16" s="14" t="n">
-        <v>-1000</v>
+        <v>155800</v>
       </c>
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="9" t="inlineStr">
         <is>
-          <t>鑽石</t>
+          <t>寶貝龍</t>
         </is>
       </c>
       <c r="B17" s="10" t="n">
-        <v>258700</v>
+        <v>0</v>
       </c>
       <c r="C17" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>187400</v>
+        <v>0</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>71300</v>
+        <v>0</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>54900</v>
-      </c>
-      <c r="G17" s="12" t="n">
-        <v>16400</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>百雀</t>
+          <t>葡京</t>
         </is>
       </c>
       <c r="B18" s="10" t="n">
-        <v>3434000</v>
+        <v>512000</v>
       </c>
       <c r="C18" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>2937600</v>
-      </c>
-      <c r="E18" s="10" t="n">
-        <v>496400</v>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>340600</v>
-      </c>
-      <c r="G18" s="12" t="n">
-        <v>155800</v>
+        <v>547300</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <v>-35300</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <v>-37300</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="9" t="inlineStr">
         <is>
-          <t>寶貝龍</t>
+          <t>大八卦</t>
         </is>
       </c>
       <c r="B19" s="10" t="n">
-        <v>0</v>
+        <v>5582800</v>
       </c>
       <c r="C19" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>0</v>
+        <v>3686800</v>
       </c>
       <c r="E19" s="10" t="n">
-        <v>0</v>
+        <v>1896000</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12" t="n">
-        <v>0</v>
+        <v>1758500</v>
+      </c>
+      <c r="G19" s="14" t="n">
+        <v>137500</v>
       </c>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>葡京</t>
+          <t>新來富</t>
         </is>
       </c>
       <c r="B20" s="10" t="n">
-        <v>512000</v>
+        <v>3445000</v>
       </c>
       <c r="C20" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>547300</v>
-      </c>
-      <c r="E20" s="13" t="n">
-        <v>-35300</v>
-      </c>
-      <c r="F20" s="13" t="n">
-        <v>-37300</v>
-      </c>
-      <c r="G20" s="12" t="n">
-        <v>2000</v>
+        <v>3583000</v>
+      </c>
+      <c r="E20" s="12" t="n">
+        <v>-138000</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>61000</v>
+      </c>
+      <c r="G20" s="13" t="n">
+        <v>-199000</v>
       </c>
     </row>
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>大八卦</t>
+          <t>金牌</t>
         </is>
       </c>
       <c r="B21" s="10" t="n">
-        <v>5582800</v>
+        <v>476200</v>
       </c>
       <c r="C21" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>3686800</v>
+        <v>382700</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>1896000</v>
+        <v>93500</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>1758500</v>
-      </c>
-      <c r="G21" s="12" t="n">
-        <v>137500</v>
+        <v>96300</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>-2800</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>新來富</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="B22" s="10" t="n">
-        <v>3445000</v>
+        <v>110600</v>
       </c>
       <c r="C22" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>3583000</v>
-      </c>
-      <c r="E22" s="13" t="n">
-        <v>-138000</v>
+        <v>35000</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>75600</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>61000</v>
+        <v>75600</v>
       </c>
       <c r="G22" s="14" t="n">
-        <v>-199000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="9" t="inlineStr">
         <is>
-          <t>金牌</t>
+          <t>浩鑫</t>
         </is>
       </c>
       <c r="B23" s="10" t="n">
-        <v>476200</v>
+        <v>7379000</v>
       </c>
       <c r="C23" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>382700</v>
+        <v>5424900</v>
       </c>
       <c r="E23" s="10" t="n">
-        <v>93500</v>
+        <v>1954100</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>96300</v>
+        <v>1649100</v>
       </c>
       <c r="G23" s="14" t="n">
-        <v>-2800</v>
+        <v>305000</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>強強滾</t>
         </is>
       </c>
       <c r="B24" s="10" t="n">
-        <v>110600</v>
+        <v>1662100</v>
       </c>
       <c r="C24" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>35000</v>
+        <v>1507500</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>75600</v>
+        <v>154600</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>75600</v>
-      </c>
-      <c r="G24" s="12" t="n">
-        <v>0</v>
+        <v>203600</v>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>-49000</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="9" t="inlineStr">
         <is>
-          <t>浩鑫</t>
+          <t>百富</t>
         </is>
       </c>
       <c r="B25" s="10" t="n">
-        <v>7379000</v>
+        <v>893000</v>
       </c>
       <c r="C25" s="11" t="n">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>5424900</v>
+        <v>730000</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>1954100</v>
+        <v>195400</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>1649100</v>
-      </c>
-      <c r="G25" s="12" t="n">
-        <v>305000</v>
+        <v>149400</v>
+      </c>
+      <c r="G25" s="14" t="n">
+        <v>46000</v>
       </c>
     </row>
     <row r="26" ht="19.5" customHeight="1">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>強強滾</t>
+          <t>法拉利</t>
         </is>
       </c>
       <c r="B26" s="10" t="n">
-        <v>1662100</v>
+        <v>925900</v>
       </c>
       <c r="C26" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>1507500</v>
+        <v>673000</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>154600</v>
+        <v>252900</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>203600</v>
+        <v>242900</v>
       </c>
       <c r="G26" s="14" t="n">
-        <v>-49000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="27" ht="19.5" customHeight="1">
       <c r="A27" s="9" t="inlineStr">
         <is>
-          <t>百富</t>
+          <t>台南彩晶</t>
         </is>
       </c>
       <c r="B27" s="10" t="n">
-        <v>893000</v>
+        <v>1129100</v>
       </c>
       <c r="C27" s="11" t="n">
-        <v>32400</v>
+        <v>0</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>730000</v>
+        <v>909500</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>195400</v>
+        <v>219600</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>149400</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>46000</v>
+        <v>221400</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>-1800</v>
       </c>
     </row>
     <row r="28" ht="19.5" customHeight="1">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>法拉利</t>
+          <t>世界盃</t>
         </is>
       </c>
       <c r="B28" s="10" t="n">
-        <v>925900</v>
+        <v>1382300</v>
       </c>
       <c r="C28" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="10" t="n">
-        <v>673000</v>
+        <v>1361700</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>252900</v>
+        <v>20600</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>242900</v>
-      </c>
-      <c r="G28" s="12" t="n">
-        <v>10000</v>
+        <v>50600</v>
+      </c>
+      <c r="G28" s="13" t="n">
+        <v>-30000</v>
       </c>
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="9" t="inlineStr">
         <is>
-          <t>台南彩晶</t>
+          <t>星域</t>
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>1129100</v>
+        <v>457200</v>
       </c>
       <c r="C29" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>909500</v>
+        <v>358900</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>219600</v>
+        <v>98300</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>221400</v>
+        <v>98100</v>
       </c>
       <c r="G29" s="14" t="n">
-        <v>-1800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>世界盃</t>
+          <t>伊馬</t>
         </is>
       </c>
       <c r="B30" s="10" t="n">
-        <v>1382300</v>
+        <v>1204800</v>
       </c>
       <c r="C30" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="10" t="n">
-        <v>1361700</v>
+        <v>1064200</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>20600</v>
+        <v>140600</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>50600</v>
+        <v>125500</v>
       </c>
       <c r="G30" s="14" t="n">
-        <v>-30000</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="9" t="inlineStr">
         <is>
-          <t>星域</t>
+          <t>銀河</t>
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>457200</v>
+        <v>2231100</v>
       </c>
       <c r="C31" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="10" t="n">
-        <v>358900</v>
+        <v>1798300</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>98300</v>
+        <v>432800</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>98100</v>
-      </c>
-      <c r="G31" s="12" t="n">
-        <v>200</v>
+        <v>468700</v>
+      </c>
+      <c r="G31" s="13" t="n">
+        <v>-35900</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>伊馬</t>
+          <t>神爺</t>
         </is>
       </c>
       <c r="B32" s="10" t="n">
-        <v>1204800</v>
+        <v>5793600</v>
       </c>
       <c r="C32" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="10" t="n">
-        <v>1064200</v>
+        <v>5305500</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>140600</v>
+        <v>488100</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>125500</v>
-      </c>
-      <c r="G32" s="12" t="n">
-        <v>15100</v>
+        <v>428100</v>
+      </c>
+      <c r="G32" s="14" t="n">
+        <v>60000</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="9" t="inlineStr">
         <is>
-          <t>銀河</t>
+          <t>升奕</t>
         </is>
       </c>
       <c r="B33" s="10" t="n">
-        <v>2231100</v>
+        <v>507100</v>
       </c>
       <c r="C33" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>1798300</v>
+        <v>499700</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>432800</v>
+        <v>7400</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>468700</v>
-      </c>
-      <c r="G33" s="14" t="n">
-        <v>-35900</v>
+        <v>15900</v>
+      </c>
+      <c r="G33" s="13" t="n">
+        <v>-8500</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>神爺</t>
+          <t>金傑克測試</t>
         </is>
       </c>
       <c r="B34" s="10" t="n">
-        <v>5793600</v>
+        <v>0</v>
       </c>
       <c r="C34" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="10" t="n">
-        <v>5305500</v>
+        <v>0</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>488100</v>
+        <v>0</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>428100</v>
-      </c>
-      <c r="G34" s="12" t="n">
-        <v>60000</v>
+        <v>0</v>
+      </c>
+      <c r="G34" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="9" t="inlineStr">
         <is>
-          <t>升奕</t>
+          <t>億吉棒</t>
         </is>
       </c>
       <c r="B35" s="10" t="n">
-        <v>507100</v>
+        <v>963900</v>
       </c>
       <c r="C35" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="10" t="n">
-        <v>499700</v>
-      </c>
-      <c r="E35" s="10" t="n">
-        <v>7400</v>
-      </c>
-      <c r="F35" s="10" t="n">
-        <v>15900</v>
+        <v>991500</v>
+      </c>
+      <c r="E35" s="12" t="n">
+        <v>-27600</v>
+      </c>
+      <c r="F35" s="12" t="n">
+        <v>-48300</v>
       </c>
       <c r="G35" s="14" t="n">
-        <v>-8500</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>金傑克測試</t>
+          <t>金傑克金孔雀</t>
         </is>
       </c>
       <c r="B36" s="10" t="n">
-        <v>0</v>
+        <v>1643900</v>
       </c>
       <c r="C36" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D36" s="10" t="n">
-        <v>0</v>
+        <v>1314700</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>0</v>
+        <v>329200</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="12" t="n">
-        <v>0</v>
+        <v>241100</v>
+      </c>
+      <c r="G36" s="14" t="n">
+        <v>88100</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1">
       <c r="A37" s="9" t="inlineStr">
         <is>
-          <t>億吉棒</t>
+          <t>金多多</t>
         </is>
       </c>
       <c r="B37" s="10" t="n">
-        <v>963900</v>
+        <v>356000</v>
       </c>
       <c r="C37" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="10" t="n">
-        <v>991500</v>
-      </c>
-      <c r="E37" s="13" t="n">
-        <v>-27600</v>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>-48300</v>
-      </c>
-      <c r="G37" s="12" t="n">
-        <v>20700</v>
+        <v>350000</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G37" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>金傑克金孔雀</t>
+          <t>金潮</t>
         </is>
       </c>
       <c r="B38" s="10" t="n">
-        <v>1643900</v>
+        <v>387700</v>
       </c>
       <c r="C38" s="11" t="n">
-        <v>0</v>
+        <v>57300</v>
       </c>
       <c r="D38" s="10" t="n">
-        <v>1314700</v>
-      </c>
-      <c r="E38" s="10" t="n">
-        <v>329200</v>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>241100</v>
-      </c>
-      <c r="G38" s="12" t="n">
-        <v>88100</v>
+        <v>500000</v>
+      </c>
+      <c r="E38" s="12" t="n">
+        <v>-55000</v>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>-68500</v>
+      </c>
+      <c r="G38" s="14" t="n">
+        <v>13500</v>
       </c>
     </row>
     <row r="39" ht="19.5" customHeight="1">
       <c r="A39" s="9" t="inlineStr">
         <is>
-          <t>金多多</t>
+          <t>天堡</t>
         </is>
       </c>
       <c r="B39" s="10" t="n">
-        <v>356000</v>
+        <v>489100</v>
       </c>
       <c r="C39" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="10" t="n">
-        <v>350000</v>
+        <v>455400</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>6000</v>
+        <v>33700</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G39" s="12" t="n">
-        <v>0</v>
+        <v>54700</v>
+      </c>
+      <c r="G39" s="13" t="n">
+        <v>-21000</v>
       </c>
     </row>
     <row r="40" ht="19.5" customHeight="1">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>金潮</t>
+          <t>裕誠</t>
         </is>
       </c>
       <c r="B40" s="10" t="n">
-        <v>387700</v>
+        <v>1023200</v>
       </c>
       <c r="C40" s="11" t="n">
-        <v>57300</v>
+        <v>0</v>
       </c>
       <c r="D40" s="10" t="n">
-        <v>500000</v>
-      </c>
-      <c r="E40" s="13" t="n">
-        <v>-55000</v>
-      </c>
-      <c r="F40" s="13" t="n">
-        <v>-68500</v>
-      </c>
-      <c r="G40" s="12" t="n">
-        <v>13500</v>
+        <v>675500</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <v>347700</v>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>346700</v>
+      </c>
+      <c r="G40" s="14" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="41" ht="19.5" customHeight="1">
       <c r="A41" s="9" t="inlineStr">
         <is>
-          <t>天堡</t>
+          <t>寶貝熊</t>
         </is>
       </c>
       <c r="B41" s="10" t="n">
-        <v>489100</v>
+        <v>1383800</v>
       </c>
       <c r="C41" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="10" t="n">
-        <v>455400</v>
-      </c>
-      <c r="E41" s="10" t="n">
-        <v>33700</v>
+        <v>1392400</v>
+      </c>
+      <c r="E41" s="12" t="n">
+        <v>-8600</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>54700</v>
-      </c>
-      <c r="G41" s="14" t="n">
-        <v>-21000</v>
+        <v>18400</v>
+      </c>
+      <c r="G41" s="13" t="n">
+        <v>-27000</v>
       </c>
     </row>
     <row r="42" ht="19.5" customHeight="1">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>裕誠</t>
+          <t>雅虎</t>
         </is>
       </c>
       <c r="B42" s="10" t="n">
-        <v>1023200</v>
+        <v>582000</v>
       </c>
       <c r="C42" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="10" t="n">
-        <v>675500</v>
-      </c>
-      <c r="E42" s="10" t="n">
-        <v>347700</v>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>346700</v>
-      </c>
-      <c r="G42" s="12" t="n">
-        <v>1000</v>
+        <v>734500</v>
+      </c>
+      <c r="E42" s="12" t="n">
+        <v>-152500</v>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>-130300</v>
+      </c>
+      <c r="G42" s="13" t="n">
+        <v>-22200</v>
       </c>
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="9" t="inlineStr">
         <is>
-          <t>寶貝熊</t>
+          <t>米其樂</t>
         </is>
       </c>
       <c r="B43" s="10" t="n">
-        <v>1383800</v>
+        <v>1881000</v>
       </c>
       <c r="C43" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D43" s="10" t="n">
-        <v>1392400</v>
-      </c>
-      <c r="E43" s="13" t="n">
-        <v>-8600</v>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>18400</v>
-      </c>
-      <c r="G43" s="14" t="n">
-        <v>-27000</v>
+        <v>1951100</v>
+      </c>
+      <c r="E43" s="12" t="n">
+        <v>-70100</v>
+      </c>
+      <c r="F43" s="12" t="n">
+        <v>-67600</v>
+      </c>
+      <c r="G43" s="13" t="n">
+        <v>-2500</v>
       </c>
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>雅虎</t>
+          <t>新球</t>
         </is>
       </c>
       <c r="B44" s="10" t="n">
-        <v>582000</v>
+        <v>2591200</v>
       </c>
       <c r="C44" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D44" s="10" t="n">
-        <v>734500</v>
-      </c>
-      <c r="E44" s="13" t="n">
-        <v>-152500</v>
-      </c>
-      <c r="F44" s="13" t="n">
-        <v>-130300</v>
+        <v>2399000</v>
+      </c>
+      <c r="E44" s="10" t="n">
+        <v>192200</v>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>62700</v>
       </c>
       <c r="G44" s="14" t="n">
-        <v>-22200</v>
+        <v>129500</v>
       </c>
     </row>
     <row r="45" ht="19.5" customHeight="1">
       <c r="A45" s="9" t="inlineStr">
         <is>
-          <t>米其樂</t>
+          <t>H2O</t>
         </is>
       </c>
       <c r="B45" s="10" t="n">
-        <v>1881000</v>
+        <v>1042200</v>
       </c>
       <c r="C45" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="10" t="n">
-        <v>1951100</v>
-      </c>
-      <c r="E45" s="13" t="n">
-        <v>-70100</v>
-      </c>
-      <c r="F45" s="13" t="n">
-        <v>-67600</v>
+        <v>1008200</v>
+      </c>
+      <c r="E45" s="10" t="n">
+        <v>34000</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>14600</v>
       </c>
       <c r="G45" s="14" t="n">
-        <v>-2500</v>
+        <v>19400</v>
       </c>
     </row>
     <row r="46" ht="19.5" customHeight="1">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>新球</t>
+          <t>檸檬樹</t>
         </is>
       </c>
       <c r="B46" s="10" t="n">
-        <v>2591200</v>
+        <v>634000</v>
       </c>
       <c r="C46" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="10" t="n">
-        <v>2399000</v>
+        <v>368500</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>192200</v>
+        <v>265500</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>62700</v>
-      </c>
-      <c r="G46" s="12" t="n">
-        <v>129500</v>
+        <v>237000</v>
+      </c>
+      <c r="G46" s="14" t="n">
+        <v>28500</v>
       </c>
     </row>
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="9" t="inlineStr">
         <is>
-          <t>H2O</t>
+          <t>太陽城</t>
         </is>
       </c>
       <c r="B47" s="10" t="n">
-        <v>1042200</v>
+        <v>589500</v>
       </c>
       <c r="C47" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D47" s="10" t="n">
-        <v>1008200</v>
+        <v>563500</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>14600</v>
-      </c>
-      <c r="G47" s="12" t="n">
-        <v>19400</v>
+        <v>26500</v>
+      </c>
+      <c r="G47" s="13" t="n">
+        <v>-500</v>
       </c>
     </row>
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>檸檬樹</t>
+          <t>鉅泰</t>
         </is>
       </c>
       <c r="B48" s="10" t="n">
-        <v>634000</v>
+        <v>689900</v>
       </c>
       <c r="C48" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D48" s="10" t="n">
-        <v>368500</v>
-      </c>
-      <c r="E48" s="10" t="n">
-        <v>265500</v>
-      </c>
-      <c r="F48" s="10" t="n">
-        <v>237000</v>
-      </c>
-      <c r="G48" s="12" t="n">
-        <v>28500</v>
+        <v>765500</v>
+      </c>
+      <c r="E48" s="12" t="n">
+        <v>-75600</v>
+      </c>
+      <c r="F48" s="12" t="n">
+        <v>-108600</v>
+      </c>
+      <c r="G48" s="14" t="n">
+        <v>33000</v>
       </c>
     </row>
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" s="9" t="inlineStr">
         <is>
-          <t>太陽城</t>
+          <t>黃金</t>
         </is>
       </c>
       <c r="B49" s="10" t="n">
-        <v>589500</v>
+        <v>457700</v>
       </c>
       <c r="C49" s="11" t="n">
-        <v>0</v>
+        <v>87900</v>
       </c>
       <c r="D49" s="10" t="n">
-        <v>563500</v>
+        <v>361500</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>26000</v>
+        <v>184100</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>26500</v>
+        <v>144100</v>
       </c>
       <c r="G49" s="14" t="n">
-        <v>-500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>鉅泰</t>
+          <t>遊戲男孩</t>
         </is>
       </c>
       <c r="B50" s="10" t="n">
-        <v>689900</v>
+        <v>1041200</v>
       </c>
       <c r="C50" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="10" t="n">
-        <v>765500</v>
-      </c>
-      <c r="E50" s="13" t="n">
-        <v>-75600</v>
-      </c>
-      <c r="F50" s="13" t="n">
-        <v>-108600</v>
-      </c>
-      <c r="G50" s="12" t="n">
-        <v>33000</v>
+        <v>681200</v>
+      </c>
+      <c r="E50" s="10" t="n">
+        <v>360000</v>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>329000</v>
+      </c>
+      <c r="G50" s="14" t="n">
+        <v>31000</v>
       </c>
     </row>
     <row r="51" ht="19.5" customHeight="1">
       <c r="A51" s="9" t="inlineStr">
         <is>
-          <t>黃金</t>
+          <t>尚興</t>
         </is>
       </c>
       <c r="B51" s="10" t="n">
-        <v>457700</v>
+        <v>1307500</v>
       </c>
       <c r="C51" s="11" t="n">
-        <v>87900</v>
+        <v>0</v>
       </c>
       <c r="D51" s="10" t="n">
-        <v>361500</v>
+        <v>1127500</v>
       </c>
       <c r="E51" s="10" t="n">
-        <v>184100</v>
+        <v>180000</v>
       </c>
       <c r="F51" s="10" t="n">
-        <v>144100</v>
-      </c>
-      <c r="G51" s="12" t="n">
-        <v>40000</v>
+        <v>178500</v>
+      </c>
+      <c r="G51" s="14" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>遊戲男孩</t>
+          <t>金享樂</t>
         </is>
       </c>
       <c r="B52" s="10" t="n">
-        <v>1041200</v>
+        <v>577000</v>
       </c>
       <c r="C52" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="10" t="n">
-        <v>681200</v>
+        <v>360000</v>
       </c>
       <c r="E52" s="10" t="n">
-        <v>360000</v>
+        <v>217000</v>
       </c>
       <c r="F52" s="10" t="n">
-        <v>329000</v>
-      </c>
-      <c r="G52" s="12" t="n">
-        <v>31000</v>
+        <v>210000</v>
+      </c>
+      <c r="G52" s="14" t="n">
+        <v>7000</v>
       </c>
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>尚興</t>
+          <t>財富寶</t>
         </is>
       </c>
       <c r="B53" s="10" t="n">
-        <v>1307500</v>
+        <v>485300</v>
       </c>
       <c r="C53" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D53" s="10" t="n">
-        <v>1127500</v>
+        <v>447500</v>
       </c>
       <c r="E53" s="10" t="n">
-        <v>180000</v>
-      </c>
-      <c r="F53" s="10" t="n">
-        <v>178500</v>
-      </c>
-      <c r="G53" s="12" t="n">
-        <v>1500</v>
+        <v>37800</v>
+      </c>
+      <c r="F53" s="12" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="G53" s="14" t="n">
+        <v>39000</v>
       </c>
     </row>
     <row r="54" ht="19.5" customHeight="1">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>金享樂</t>
+          <t>帝濠</t>
         </is>
       </c>
       <c r="B54" s="10" t="n">
-        <v>577000</v>
+        <v>678900</v>
       </c>
       <c r="C54" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D54" s="10" t="n">
-        <v>360000</v>
-      </c>
-      <c r="E54" s="10" t="n">
-        <v>217000</v>
-      </c>
-      <c r="F54" s="10" t="n">
-        <v>210000</v>
-      </c>
-      <c r="G54" s="12" t="n">
-        <v>7000</v>
+        <v>807500</v>
+      </c>
+      <c r="E54" s="12" t="n">
+        <v>-128600</v>
+      </c>
+      <c r="F54" s="12" t="n">
+        <v>-128600</v>
+      </c>
+      <c r="G54" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="19.5" customHeight="1">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>財富寶</t>
+          <t>鳳山大八卦</t>
         </is>
       </c>
       <c r="B55" s="10" t="n">
-        <v>485300</v>
+        <v>1048100</v>
       </c>
       <c r="C55" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D55" s="10" t="n">
-        <v>447500</v>
+        <v>1004200</v>
       </c>
       <c r="E55" s="10" t="n">
-        <v>37800</v>
-      </c>
-      <c r="F55" s="13" t="n">
-        <v>-1200</v>
-      </c>
-      <c r="G55" s="12" t="n">
-        <v>39000</v>
+        <v>43900</v>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>54300</v>
+      </c>
+      <c r="G55" s="13" t="n">
+        <v>-10400</v>
       </c>
     </row>
     <row r="56" ht="19.5" customHeight="1">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>帝濠</t>
+          <t>富貴萊</t>
         </is>
       </c>
       <c r="B56" s="10" t="n">
-        <v>678900</v>
+        <v>2351000</v>
       </c>
       <c r="C56" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D56" s="10" t="n">
-        <v>807500</v>
-      </c>
-      <c r="E56" s="13" t="n">
-        <v>-128600</v>
-      </c>
-      <c r="F56" s="13" t="n">
-        <v>-128600</v>
-      </c>
-      <c r="G56" s="12" t="n">
-        <v>0</v>
+        <v>1844800</v>
+      </c>
+      <c r="E56" s="10" t="n">
+        <v>506200</v>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>556200</v>
+      </c>
+      <c r="G56" s="13" t="n">
+        <v>-50000</v>
       </c>
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>鳳山大八卦</t>
+          <t>金寶山</t>
         </is>
       </c>
       <c r="B57" s="10" t="n">
-        <v>1048100</v>
+        <v>387000</v>
       </c>
       <c r="C57" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D57" s="10" t="n">
-        <v>1004200</v>
+        <v>346000</v>
       </c>
       <c r="E57" s="10" t="n">
-        <v>43900</v>
+        <v>41000</v>
       </c>
       <c r="F57" s="10" t="n">
-        <v>54300</v>
-      </c>
-      <c r="G57" s="14" t="n">
-        <v>-10400</v>
+        <v>54000</v>
+      </c>
+      <c r="G57" s="13" t="n">
+        <v>-13000</v>
       </c>
     </row>
     <row r="58" ht="19.5" customHeight="1">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>富貴萊</t>
+          <t>阿帕契</t>
         </is>
       </c>
       <c r="B58" s="10" t="n">
-        <v>2351000</v>
+        <v>939200</v>
       </c>
       <c r="C58" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D58" s="10" t="n">
-        <v>1844800</v>
+        <v>609100</v>
       </c>
       <c r="E58" s="10" t="n">
-        <v>506200</v>
+        <v>330100</v>
       </c>
       <c r="F58" s="10" t="n">
-        <v>556200</v>
+        <v>321600</v>
       </c>
       <c r="G58" s="14" t="n">
-        <v>-50000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" s="9" t="inlineStr">
         <is>
-          <t>金寶山</t>
+          <t>柚子園</t>
         </is>
       </c>
       <c r="B59" s="10" t="n">
-        <v>387000</v>
+        <v>1800000</v>
       </c>
       <c r="C59" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D59" s="10" t="n">
-        <v>346000</v>
+        <v>1695300</v>
       </c>
       <c r="E59" s="10" t="n">
-        <v>41000</v>
-      </c>
-      <c r="F59" s="10" t="n">
-        <v>54000</v>
+        <v>104700</v>
+      </c>
+      <c r="F59" s="12" t="n">
+        <v>-5900</v>
       </c>
       <c r="G59" s="14" t="n">
-        <v>-13000</v>
+        <v>110600</v>
       </c>
     </row>
     <row r="60" ht="19.5" customHeight="1">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>阿帕契</t>
+          <t>阿里巴巴</t>
         </is>
       </c>
       <c r="B60" s="10" t="n">
-        <v>939200</v>
+        <v>0</v>
       </c>
       <c r="C60" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D60" s="10" t="n">
-        <v>609100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="10" t="n">
-        <v>330100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="10" t="n">
-        <v>321600</v>
-      </c>
-      <c r="G60" s="12" t="n">
-        <v>8500</v>
+        <v>0</v>
+      </c>
+      <c r="G60" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="19.5" customHeight="1">
       <c r="A61" s="9" t="inlineStr">
         <is>
-          <t>柚子園</t>
+          <t>里昂</t>
         </is>
       </c>
       <c r="B61" s="10" t="n">
-        <v>1800000</v>
+        <v>0</v>
       </c>
       <c r="C61" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D61" s="10" t="n">
-        <v>1695300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="10" t="n">
-        <v>104700</v>
-      </c>
-      <c r="F61" s="13" t="n">
-        <v>-5900</v>
-      </c>
-      <c r="G61" s="12" t="n">
-        <v>110600</v>
+        <v>0</v>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="19.5" customHeight="1">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>阿里巴巴</t>
+          <t>領航者</t>
         </is>
       </c>
       <c r="B62" s="10" t="n">
-        <v>0</v>
+        <v>193400</v>
       </c>
       <c r="C62" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D62" s="10" t="n">
-        <v>0</v>
+        <v>153700</v>
       </c>
       <c r="E62" s="10" t="n">
-        <v>0</v>
+        <v>39700</v>
       </c>
       <c r="F62" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="12" t="n">
-        <v>0</v>
+        <v>40300</v>
+      </c>
+      <c r="G62" s="13" t="n">
+        <v>-600</v>
       </c>
     </row>
     <row r="63" ht="19.5" customHeight="1">
       <c r="A63" s="9" t="inlineStr">
         <is>
-          <t>里昂</t>
+          <t>B1風城</t>
         </is>
       </c>
       <c r="B63" s="10" t="n">
-        <v>0</v>
+        <v>4571600</v>
       </c>
       <c r="C63" s="11" t="n">
-        <v>0</v>
+        <v>2031000</v>
       </c>
       <c r="D63" s="10" t="n">
-        <v>0</v>
+        <v>5596000</v>
       </c>
       <c r="E63" s="10" t="n">
-        <v>0</v>
+        <v>1006600</v>
       </c>
       <c r="F63" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="12" t="n">
-        <v>0</v>
+        <v>890600</v>
+      </c>
+      <c r="G63" s="14" t="n">
+        <v>116000</v>
       </c>
     </row>
     <row r="64" ht="19.5" customHeight="1">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>領航者</t>
+          <t>鴻鷹</t>
         </is>
       </c>
       <c r="B64" s="10" t="n">
-        <v>193400</v>
+        <v>1681200</v>
       </c>
       <c r="C64" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D64" s="10" t="n">
-        <v>153700</v>
+        <v>1533000</v>
       </c>
       <c r="E64" s="10" t="n">
-        <v>39700</v>
+        <v>148200</v>
       </c>
       <c r="F64" s="10" t="n">
-        <v>40300</v>
-      </c>
-      <c r="G64" s="14" t="n">
-        <v>-600</v>
+        <v>156500</v>
+      </c>
+      <c r="G64" s="13" t="n">
+        <v>-8300</v>
       </c>
     </row>
     <row r="65" ht="19.5" customHeight="1">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>B1風城</t>
+          <t>大小</t>
         </is>
       </c>
       <c r="B65" s="10" t="n">
-        <v>4571600</v>
+        <v>1695500</v>
       </c>
       <c r="C65" s="11" t="n">
-        <v>2031000</v>
+        <v>0</v>
       </c>
       <c r="D65" s="10" t="n">
-        <v>5596000</v>
+        <v>1054000</v>
       </c>
       <c r="E65" s="10" t="n">
-        <v>1006600</v>
+        <v>641500</v>
       </c>
       <c r="F65" s="10" t="n">
-        <v>890600</v>
-      </c>
-      <c r="G65" s="12" t="n">
-        <v>116000</v>
+        <v>611500</v>
+      </c>
+      <c r="G65" s="14" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="66" ht="19.5" customHeight="1">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>鴻鷹</t>
+          <t>千樂</t>
         </is>
       </c>
       <c r="B66" s="10" t="n">
-        <v>1681200</v>
+        <v>873000</v>
       </c>
       <c r="C66" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D66" s="10" t="n">
-        <v>1533000</v>
+        <v>585000</v>
       </c>
       <c r="E66" s="10" t="n">
-        <v>148200</v>
+        <v>288000</v>
       </c>
       <c r="F66" s="10" t="n">
-        <v>156500</v>
+        <v>210000</v>
       </c>
       <c r="G66" s="14" t="n">
-        <v>-8300</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="67" ht="19.5" customHeight="1">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>大小</t>
+          <t>源福</t>
         </is>
       </c>
       <c r="B67" s="10" t="n">
-        <v>1695500</v>
+        <v>649500</v>
       </c>
       <c r="C67" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D67" s="10" t="n">
-        <v>1054000</v>
+        <v>474500</v>
       </c>
       <c r="E67" s="10" t="n">
-        <v>641500</v>
+        <v>175000</v>
       </c>
       <c r="F67" s="10" t="n">
-        <v>611500</v>
-      </c>
-      <c r="G67" s="12" t="n">
-        <v>30000</v>
+        <v>167000</v>
+      </c>
+      <c r="G67" s="14" t="n">
+        <v>8000</v>
       </c>
     </row>
     <row r="68" ht="19.5" customHeight="1">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>千樂</t>
+          <t>黑桃</t>
         </is>
       </c>
       <c r="B68" s="10" t="n">
-        <v>873000</v>
+        <v>0</v>
       </c>
       <c r="C68" s="11" t="n">
-        <v>0</v>
+        <v>3186000</v>
       </c>
       <c r="D68" s="10" t="n">
-        <v>585000</v>
+        <v>1968000</v>
       </c>
       <c r="E68" s="10" t="n">
-        <v>288000</v>
+        <v>1218000</v>
       </c>
       <c r="F68" s="10" t="n">
-        <v>210000</v>
-      </c>
-      <c r="G68" s="12" t="n">
-        <v>78000</v>
+        <v>1172000</v>
+      </c>
+      <c r="G68" s="14" t="n">
+        <v>46000</v>
       </c>
     </row>
     <row r="69" ht="19.5" customHeight="1">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>源福</t>
+          <t>金傑克太陽</t>
         </is>
       </c>
       <c r="B69" s="10" t="n">
-        <v>649500</v>
+        <v>771500</v>
       </c>
       <c r="C69" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D69" s="10" t="n">
-        <v>474500</v>
+        <v>604500</v>
       </c>
       <c r="E69" s="10" t="n">
-        <v>175000</v>
+        <v>167000</v>
       </c>
       <c r="F69" s="10" t="n">
-        <v>167000</v>
-      </c>
-      <c r="G69" s="12" t="n">
-        <v>8000</v>
+        <v>200000</v>
+      </c>
+      <c r="G69" s="13" t="n">
+        <v>-33000</v>
       </c>
     </row>
     <row r="70" ht="19.5" customHeight="1">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>黑桃</t>
+          <t>藍語</t>
         </is>
       </c>
       <c r="B70" s="10" t="n">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="C70" s="11" t="n">
-        <v>3186000</v>
+        <v>0</v>
       </c>
       <c r="D70" s="10" t="n">
-        <v>1968000</v>
+        <v>8100</v>
       </c>
       <c r="E70" s="10" t="n">
-        <v>1218000</v>
+        <v>9300</v>
       </c>
       <c r="F70" s="10" t="n">
-        <v>1172000</v>
-      </c>
-      <c r="G70" s="12" t="n">
-        <v>46000</v>
+        <v>9300</v>
+      </c>
+      <c r="G70" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" ht="19.5" customHeight="1">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>金傑克太陽</t>
+          <t>五月天</t>
         </is>
       </c>
       <c r="B71" s="10" t="n">
-        <v>771500</v>
+        <v>163300</v>
       </c>
       <c r="C71" s="11" t="n">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="D71" s="10" t="n">
-        <v>604500</v>
+        <v>34700</v>
       </c>
       <c r="E71" s="10" t="n">
-        <v>167000</v>
+        <v>143900</v>
       </c>
       <c r="F71" s="10" t="n">
-        <v>200000</v>
+        <v>143900</v>
       </c>
       <c r="G71" s="14" t="n">
-        <v>-33000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" ht="19.5" customHeight="1">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>藍語</t>
+          <t>金球獎</t>
         </is>
       </c>
       <c r="B72" s="10" t="n">
-        <v>17400</v>
+        <v>1219000</v>
       </c>
       <c r="C72" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D72" s="10" t="n">
-        <v>8100</v>
+        <v>960200</v>
       </c>
       <c r="E72" s="10" t="n">
-        <v>9300</v>
+        <v>258800</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>9300</v>
-      </c>
-      <c r="G72" s="12" t="n">
-        <v>0</v>
+        <v>249400</v>
+      </c>
+      <c r="G72" s="14" t="n">
+        <v>9400</v>
       </c>
     </row>
     <row r="73" ht="19.5" customHeight="1">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>五月天</t>
+          <t>大金</t>
         </is>
       </c>
       <c r="B73" s="10" t="n">
-        <v>163300</v>
+        <v>1215600</v>
       </c>
       <c r="C73" s="11" t="n">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>34700</v>
+        <v>872100</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>143900</v>
+        <v>343500</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>143900</v>
-      </c>
-      <c r="G73" s="12" t="n">
-        <v>0</v>
+        <v>364800</v>
+      </c>
+      <c r="G73" s="13" t="n">
+        <v>-21300</v>
       </c>
     </row>
     <row r="74" ht="19.5" customHeight="1">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>金球獎</t>
+          <t>聚豪</t>
         </is>
       </c>
       <c r="B74" s="10" t="n">
-        <v>1219000</v>
+        <v>3208000</v>
       </c>
       <c r="C74" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>960200</v>
+        <v>2317900</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>258800</v>
+        <v>890100</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>249400</v>
-      </c>
-      <c r="G74" s="12" t="n">
-        <v>9400</v>
+        <v>851500</v>
+      </c>
+      <c r="G74" s="14" t="n">
+        <v>38600</v>
       </c>
     </row>
     <row r="75" ht="19.5" customHeight="1">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>大金</t>
+          <t>夏夏叫</t>
         </is>
       </c>
       <c r="B75" s="10" t="n">
-        <v>1215600</v>
+        <v>1752500</v>
       </c>
       <c r="C75" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>872100</v>
+        <v>1390000</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>343500</v>
+        <v>362500</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>364800</v>
+        <v>337000</v>
       </c>
       <c r="G75" s="14" t="n">
-        <v>-21300</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="76" ht="19.5" customHeight="1">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>聚豪</t>
+          <t>棋祥</t>
         </is>
       </c>
       <c r="B76" s="10" t="n">
-        <v>3208000</v>
+        <v>1156900</v>
       </c>
       <c r="C76" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>2317900</v>
-      </c>
-      <c r="E76" s="10" t="n">
-        <v>890100</v>
+        <v>1221800</v>
+      </c>
+      <c r="E76" s="12" t="n">
+        <v>-64900</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>851500</v>
-      </c>
-      <c r="G76" s="12" t="n">
-        <v>38600</v>
+        <v>49100</v>
+      </c>
+      <c r="G76" s="13" t="n">
+        <v>-114000</v>
       </c>
     </row>
     <row r="77" ht="19.5" customHeight="1">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>夏夏叫</t>
+          <t>長紅</t>
         </is>
       </c>
       <c r="B77" s="10" t="n">
-        <v>1752500</v>
+        <v>115200</v>
       </c>
       <c r="C77" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D77" s="10" t="n">
-        <v>1390000</v>
+        <v>100000</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>362500</v>
+        <v>15200</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>337000</v>
-      </c>
-      <c r="G77" s="12" t="n">
-        <v>25500</v>
+        <v>13200</v>
+      </c>
+      <c r="G77" s="14" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="78" ht="19.5" customHeight="1">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>棋祥</t>
+          <t>南投大發</t>
         </is>
       </c>
       <c r="B78" s="10" t="n">
-        <v>1156900</v>
+        <v>201200</v>
       </c>
       <c r="C78" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>1221800</v>
-      </c>
-      <c r="E78" s="13" t="n">
-        <v>-64900</v>
+        <v>109800</v>
+      </c>
+      <c r="E78" s="10" t="n">
+        <v>91400</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>49100</v>
+        <v>89800</v>
       </c>
       <c r="G78" s="14" t="n">
-        <v>-114000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="79" ht="19.5" customHeight="1">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>長紅</t>
+          <t>名間巧虎</t>
         </is>
       </c>
       <c r="B79" s="10" t="n">
-        <v>115200</v>
+        <v>63200</v>
       </c>
       <c r="C79" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E79" s="10" t="n">
-        <v>15200</v>
-      </c>
-      <c r="F79" s="10" t="n">
-        <v>13200</v>
-      </c>
-      <c r="G79" s="12" t="n">
-        <v>2000</v>
+        <v>76400</v>
+      </c>
+      <c r="E79" s="12" t="n">
+        <v>-13200</v>
+      </c>
+      <c r="F79" s="12" t="n">
+        <v>-13200</v>
+      </c>
+      <c r="G79" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80" ht="19.5" customHeight="1">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>南投大發</t>
+          <t>大茂</t>
         </is>
       </c>
       <c r="B80" s="10" t="n">
-        <v>201200</v>
+        <v>84100</v>
       </c>
       <c r="C80" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>109800</v>
-      </c>
-      <c r="E80" s="10" t="n">
-        <v>91400</v>
-      </c>
-      <c r="F80" s="10" t="n">
-        <v>89800</v>
-      </c>
-      <c r="G80" s="12" t="n">
-        <v>1600</v>
+        <v>92000</v>
+      </c>
+      <c r="E80" s="12" t="n">
+        <v>-7900</v>
+      </c>
+      <c r="F80" s="12" t="n">
+        <v>-4400</v>
+      </c>
+      <c r="G80" s="13" t="n">
+        <v>-3500</v>
       </c>
     </row>
     <row r="81" ht="19.5" customHeight="1">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>名間巧虎</t>
+          <t>台東雅虎</t>
         </is>
       </c>
       <c r="B81" s="10" t="n">
-        <v>63200</v>
+        <v>4500</v>
       </c>
       <c r="C81" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>76400</v>
-      </c>
-      <c r="E81" s="13" t="n">
-        <v>-13200</v>
-      </c>
-      <c r="F81" s="13" t="n">
-        <v>-13200</v>
-      </c>
-      <c r="G81" s="12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E81" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" ht="19.5" customHeight="1">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>大茂</t>
+          <t>台東銀河</t>
         </is>
       </c>
       <c r="B82" s="10" t="n">
-        <v>84100</v>
+        <v>687500</v>
       </c>
       <c r="C82" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>92000</v>
-      </c>
-      <c r="E82" s="13" t="n">
-        <v>-7900</v>
-      </c>
-      <c r="F82" s="13" t="n">
-        <v>-4400</v>
-      </c>
-      <c r="G82" s="14" t="n">
-        <v>-3500</v>
+        <v>515200</v>
+      </c>
+      <c r="E82" s="10" t="n">
+        <v>172300</v>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>173500</v>
+      </c>
+      <c r="G82" s="13" t="n">
+        <v>-1200</v>
       </c>
     </row>
     <row r="83" ht="19.5" customHeight="1">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>台東雅虎</t>
+          <t>超悟空</t>
         </is>
       </c>
       <c r="B83" s="10" t="n">
-        <v>4500</v>
+        <v>141700</v>
       </c>
       <c r="C83" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E83" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="12" t="n">
-        <v>0</v>
+        <v>149800</v>
+      </c>
+      <c r="E83" s="12" t="n">
+        <v>-8100</v>
+      </c>
+      <c r="F83" s="12" t="n">
+        <v>-6100</v>
+      </c>
+      <c r="G83" s="13" t="n">
+        <v>-2000</v>
       </c>
     </row>
     <row r="84" ht="19.5" customHeight="1">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>台東銀河</t>
+          <t>佰吉興</t>
         </is>
       </c>
       <c r="B84" s="10" t="n">
-        <v>687500</v>
+        <v>27000</v>
       </c>
       <c r="C84" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>515200</v>
+        <v>27000</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>172300</v>
+        <v>0</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>173500</v>
+        <v>0</v>
       </c>
       <c r="G84" s="14" t="n">
-        <v>-1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" ht="19.5" customHeight="1">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>超悟空</t>
+          <t>真好味</t>
         </is>
       </c>
       <c r="B85" s="10" t="n">
-        <v>141700</v>
+        <v>16500</v>
       </c>
       <c r="C85" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>149800</v>
-      </c>
-      <c r="E85" s="13" t="n">
-        <v>-8100</v>
-      </c>
-      <c r="F85" s="13" t="n">
-        <v>-6100</v>
+        <v>16500</v>
+      </c>
+      <c r="E85" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G85" s="14" t="n">
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" ht="19.5" customHeight="1">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>佰吉興</t>
+          <t>雙九</t>
         </is>
       </c>
       <c r="B86" s="10" t="n">
-        <v>27000</v>
+        <v>51000</v>
       </c>
       <c r="C86" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>27000</v>
+        <v>51000</v>
       </c>
       <c r="E86" s="10" t="n">
         <v>0</v>
@@ -2693,49 +2693,49 @@
       <c r="F86" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G86" s="12" t="n">
+      <c r="G86" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" ht="19.5" customHeight="1">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>真好味</t>
+          <t>六本木</t>
         </is>
       </c>
       <c r="B87" s="10" t="n">
-        <v>16500</v>
+        <v>48900</v>
       </c>
       <c r="C87" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>16500</v>
-      </c>
-      <c r="E87" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" s="12" t="n">
-        <v>0</v>
+        <v>116400</v>
+      </c>
+      <c r="E87" s="12" t="n">
+        <v>-67500</v>
+      </c>
+      <c r="F87" s="12" t="n">
+        <v>-68500</v>
+      </c>
+      <c r="G87" s="14" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="88" ht="19.5" customHeight="1">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>雙九</t>
+          <t>信義</t>
         </is>
       </c>
       <c r="B88" s="10" t="n">
-        <v>51000</v>
+        <v>2500</v>
       </c>
       <c r="C88" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>51000</v>
+        <v>2500</v>
       </c>
       <c r="E88" s="10" t="n">
         <v>0</v>
@@ -2743,124 +2743,124 @@
       <c r="F88" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G88" s="12" t="n">
+      <c r="G88" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89" ht="19.5" customHeight="1">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>六本木</t>
+          <t>大公</t>
         </is>
       </c>
       <c r="B89" s="10" t="n">
-        <v>48900</v>
+        <v>152100</v>
       </c>
       <c r="C89" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>116400</v>
-      </c>
-      <c r="E89" s="13" t="n">
-        <v>-67500</v>
-      </c>
-      <c r="F89" s="13" t="n">
-        <v>-68500</v>
-      </c>
-      <c r="G89" s="12" t="n">
-        <v>1000</v>
+        <v>270100</v>
+      </c>
+      <c r="E89" s="12" t="n">
+        <v>-118000</v>
+      </c>
+      <c r="F89" s="12" t="n">
+        <v>-122000</v>
+      </c>
+      <c r="G89" s="14" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="90" ht="19.5" customHeight="1">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>信義</t>
+          <t>長頸鹿</t>
         </is>
       </c>
       <c r="B90" s="10" t="n">
-        <v>2500</v>
+        <v>69500</v>
       </c>
       <c r="C90" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>2500</v>
+        <v>53500</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" s="12" t="n">
-        <v>0</v>
+        <v>14000</v>
+      </c>
+      <c r="G90" s="14" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="91" ht="19.5" customHeight="1">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>大公</t>
+          <t>台中凱悅</t>
         </is>
       </c>
       <c r="B91" s="10" t="n">
-        <v>152100</v>
+        <v>61900</v>
       </c>
       <c r="C91" s="11" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>270100</v>
-      </c>
-      <c r="E91" s="13" t="n">
-        <v>-118000</v>
-      </c>
-      <c r="F91" s="13" t="n">
-        <v>-122000</v>
-      </c>
-      <c r="G91" s="12" t="n">
-        <v>4000</v>
+        <v>65900</v>
+      </c>
+      <c r="E91" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92" ht="19.5" customHeight="1">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>長頸鹿</t>
+          <t>三井</t>
         </is>
       </c>
       <c r="B92" s="10" t="n">
-        <v>69500</v>
+        <v>114800</v>
       </c>
       <c r="C92" s="11" t="n">
-        <v>0</v>
+        <v>43200</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>53500</v>
+        <v>66000</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>16000</v>
+        <v>92000</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G92" s="12" t="n">
-        <v>2000</v>
+        <v>0</v>
+      </c>
+      <c r="G92" s="14" t="n">
+        <v>92000</v>
       </c>
     </row>
     <row r="93" ht="19.5" customHeight="1">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>台中凱悅</t>
+          <t>獅子王</t>
         </is>
       </c>
       <c r="B93" s="10" t="n">
-        <v>61900</v>
+        <v>0</v>
       </c>
       <c r="C93" s="11" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>65900</v>
+        <v>0</v>
       </c>
       <c r="E93" s="10" t="n">
         <v>0</v>
@@ -2868,39 +2868,39 @@
       <c r="F93" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G93" s="12" t="n">
+      <c r="G93" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" ht="19.5" customHeight="1">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>三井</t>
+          <t>屏東凱越</t>
         </is>
       </c>
       <c r="B94" s="10" t="n">
-        <v>114800</v>
+        <v>0</v>
       </c>
       <c r="C94" s="11" t="n">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>66000</v>
+        <v>0</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>92000</v>
+        <v>0</v>
       </c>
       <c r="F94" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G94" s="12" t="n">
-        <v>92000</v>
+      <c r="G94" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95" ht="19.5" customHeight="1">
       <c r="A95" s="9" t="inlineStr">
         <is>
-          <t>獅子王</t>
+          <t>富合樂</t>
         </is>
       </c>
       <c r="B95" s="10" t="n">
@@ -2918,14 +2918,14 @@
       <c r="F95" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G95" s="12" t="n">
+      <c r="G95" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" ht="19.5" customHeight="1">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>屏東凱越</t>
+          <t>枋寮好朋友</t>
         </is>
       </c>
       <c r="B96" s="10" t="n">
@@ -2943,82 +2943,32 @@
       <c r="F96" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G96" s="12" t="n">
+      <c r="G96" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" ht="19.5" customHeight="1">
-      <c r="A97" s="9" t="inlineStr">
-        <is>
-          <t>富合樂</t>
-        </is>
-      </c>
-      <c r="B97" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" ht="19.5" customHeight="1">
-      <c r="A98" s="9" t="inlineStr">
-        <is>
-          <t>枋寮好朋友</t>
-        </is>
-      </c>
-      <c r="B98" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" ht="19.5" customHeight="1">
-      <c r="A99" s="15" t="inlineStr">
+      <c r="A97" s="15" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
       </c>
-      <c r="B99" s="16" t="n">
+      <c r="B97" s="16" t="n">
         <v>117906600</v>
       </c>
-      <c r="C99" s="17" t="n">
+      <c r="C97" s="17" t="n">
         <v>5748600</v>
       </c>
-      <c r="D99" s="16" t="n">
+      <c r="D97" s="16" t="n">
         <v>105355300</v>
       </c>
-      <c r="E99" s="16" t="n">
+      <c r="E97" s="16" t="n">
         <v>18299900</v>
       </c>
-      <c r="F99" s="16" t="n">
+      <c r="F97" s="16" t="n">
         <v>17422000</v>
       </c>
-      <c r="G99" s="18" t="n">
+      <c r="G97" s="18" t="n">
         <v>877900</v>
       </c>
     </row>

--- a/1.24 開洗分狀況(08-00).xlsx
+++ b/1.24 開洗分狀況(08-00).xlsx
@@ -164,10 +164,10 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>店家數: 92</t>
+          <t>店家數: 91</t>
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
@@ -650,1382 +650,1382 @@
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>好朋友</t>
+          <t>新吉星</t>
         </is>
       </c>
       <c r="B5" s="10" t="n">
-        <v>780100</v>
+        <v>6661400</v>
       </c>
       <c r="C5" s="11" t="n">
-        <v>0</v>
+        <v>291500</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>814800</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>-34700</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>-14700</v>
-      </c>
-      <c r="G5" s="13" t="n">
-        <v>-20000</v>
+        <v>5732000</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>1220900</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>1233400</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>-12500</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>新吉星</t>
+          <t>百邑</t>
         </is>
       </c>
       <c r="B6" s="10" t="n">
-        <v>6661400</v>
+        <v>845800</v>
       </c>
       <c r="C6" s="11" t="n">
-        <v>291500</v>
+        <v>0</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>5732000</v>
+        <v>832000</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>1220900</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>1233400</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>-12500</v>
+        <v>13800</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>-12200</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>26000</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>百邑</t>
+          <t>千弈</t>
         </is>
       </c>
       <c r="B7" s="10" t="n">
-        <v>845800</v>
+        <v>4606800</v>
       </c>
       <c r="C7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>832000</v>
+        <v>3537000</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>13800</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>-12200</v>
+        <v>1069800</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>1004800</v>
       </c>
       <c r="G7" s="14" t="n">
-        <v>26000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>千弈</t>
+          <t>黑卡</t>
         </is>
       </c>
       <c r="B8" s="10" t="n">
-        <v>4606800</v>
+        <v>13753100</v>
       </c>
       <c r="C8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>3537000</v>
+        <v>12932300</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>1069800</v>
+        <v>820800</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>1004800</v>
-      </c>
-      <c r="G8" s="14" t="n">
-        <v>65000</v>
+        <v>921800</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <v>-101000</v>
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>黑卡</t>
+          <t>萬豪</t>
         </is>
       </c>
       <c r="B9" s="10" t="n">
-        <v>13753100</v>
+        <v>4640000</v>
       </c>
       <c r="C9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>12932300</v>
+        <v>4230000</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>820800</v>
+        <v>410000</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>921800</v>
-      </c>
-      <c r="G9" s="13" t="n">
-        <v>-101000</v>
+        <v>574500</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>-164500</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t>萬豪</t>
+          <t>千輝</t>
         </is>
       </c>
       <c r="B10" s="10" t="n">
-        <v>4640000</v>
+        <v>1072200</v>
       </c>
       <c r="C10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>4230000</v>
-      </c>
-      <c r="E10" s="10" t="n">
-        <v>410000</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>574500</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <v>-164500</v>
+        <v>1557500</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>-485300</v>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>-486300</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>千輝</t>
+          <t>有澤</t>
         </is>
       </c>
       <c r="B11" s="10" t="n">
-        <v>1072200</v>
+        <v>243800</v>
       </c>
       <c r="C11" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>1557500</v>
-      </c>
-      <c r="E11" s="12" t="n">
-        <v>-485300</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <v>-486300</v>
-      </c>
-      <c r="G11" s="14" t="n">
-        <v>1000</v>
+        <v>159900</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>83900</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>86900</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <v>-3000</v>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>有澤</t>
+          <t>金卡</t>
         </is>
       </c>
       <c r="B12" s="10" t="n">
-        <v>243800</v>
+        <v>889000</v>
       </c>
       <c r="C12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>159900</v>
+        <v>701800</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>83900</v>
+        <v>187200</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>86900</v>
-      </c>
-      <c r="G12" s="13" t="n">
-        <v>-3000</v>
+        <v>215200</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>-28000</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="9" t="inlineStr">
         <is>
-          <t>金卡</t>
+          <t>名衆</t>
         </is>
       </c>
       <c r="B13" s="10" t="n">
-        <v>889000</v>
+        <v>689600</v>
       </c>
       <c r="C13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>701800</v>
+        <v>620500</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>187200</v>
+        <v>69100</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>215200</v>
-      </c>
-      <c r="G13" s="13" t="n">
-        <v>-28000</v>
+        <v>70100</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <v>-1000</v>
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="9" t="inlineStr">
         <is>
-          <t>名衆</t>
+          <t>鑽石</t>
         </is>
       </c>
       <c r="B14" s="10" t="n">
-        <v>689600</v>
+        <v>258700</v>
       </c>
       <c r="C14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>620500</v>
+        <v>187400</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>69100</v>
+        <v>71300</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>70100</v>
-      </c>
-      <c r="G14" s="13" t="n">
-        <v>-1000</v>
+        <v>54900</v>
+      </c>
+      <c r="G14" s="14" t="n">
+        <v>16400</v>
       </c>
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="9" t="inlineStr">
         <is>
-          <t>鑽石</t>
+          <t>百雀</t>
         </is>
       </c>
       <c r="B15" s="10" t="n">
-        <v>258700</v>
+        <v>3434000</v>
       </c>
       <c r="C15" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>187400</v>
+        <v>2937600</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>71300</v>
+        <v>496400</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>54900</v>
+        <v>340600</v>
       </c>
       <c r="G15" s="14" t="n">
-        <v>16400</v>
+        <v>155800</v>
       </c>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>百雀</t>
+          <t>寶貝龍</t>
         </is>
       </c>
       <c r="B16" s="10" t="n">
-        <v>3434000</v>
+        <v>0</v>
       </c>
       <c r="C16" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>2937600</v>
+        <v>0</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>496400</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>340600</v>
+        <v>0</v>
       </c>
       <c r="G16" s="14" t="n">
-        <v>155800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="9" t="inlineStr">
         <is>
-          <t>寶貝龍</t>
+          <t>葡京</t>
         </is>
       </c>
       <c r="B17" s="10" t="n">
-        <v>0</v>
+        <v>512000</v>
       </c>
       <c r="C17" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>0</v>
+        <v>547300</v>
+      </c>
+      <c r="E17" s="13" t="n">
+        <v>-35300</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>-37300</v>
       </c>
       <c r="G17" s="14" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>葡京</t>
+          <t>大八卦</t>
         </is>
       </c>
       <c r="B18" s="10" t="n">
-        <v>512000</v>
+        <v>5582800</v>
       </c>
       <c r="C18" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>547300</v>
-      </c>
-      <c r="E18" s="12" t="n">
-        <v>-35300</v>
-      </c>
-      <c r="F18" s="12" t="n">
-        <v>-37300</v>
+        <v>3686800</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>1896000</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>1758500</v>
       </c>
       <c r="G18" s="14" t="n">
-        <v>2000</v>
+        <v>137500</v>
       </c>
     </row>
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="9" t="inlineStr">
         <is>
-          <t>大八卦</t>
+          <t>新來富</t>
         </is>
       </c>
       <c r="B19" s="10" t="n">
-        <v>5582800</v>
+        <v>3445000</v>
       </c>
       <c r="C19" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>3686800</v>
-      </c>
-      <c r="E19" s="10" t="n">
-        <v>1896000</v>
+        <v>3583000</v>
+      </c>
+      <c r="E19" s="13" t="n">
+        <v>-138000</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>1758500</v>
-      </c>
-      <c r="G19" s="14" t="n">
-        <v>137500</v>
+        <v>61000</v>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>-199000</v>
       </c>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>新來富</t>
+          <t>金牌</t>
         </is>
       </c>
       <c r="B20" s="10" t="n">
-        <v>3445000</v>
+        <v>476200</v>
       </c>
       <c r="C20" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>3583000</v>
-      </c>
-      <c r="E20" s="12" t="n">
-        <v>-138000</v>
+        <v>382700</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>93500</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>61000</v>
-      </c>
-      <c r="G20" s="13" t="n">
-        <v>-199000</v>
+        <v>96300</v>
+      </c>
+      <c r="G20" s="12" t="n">
+        <v>-2800</v>
       </c>
     </row>
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>金牌</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="B21" s="10" t="n">
-        <v>476200</v>
+        <v>110600</v>
       </c>
       <c r="C21" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>382700</v>
+        <v>35000</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>93500</v>
+        <v>75600</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>96300</v>
-      </c>
-      <c r="G21" s="13" t="n">
-        <v>-2800</v>
+        <v>75600</v>
+      </c>
+      <c r="G21" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>浩鑫</t>
         </is>
       </c>
       <c r="B22" s="10" t="n">
-        <v>110600</v>
+        <v>7379000</v>
       </c>
       <c r="C22" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>35000</v>
+        <v>5424900</v>
       </c>
       <c r="E22" s="10" t="n">
-        <v>75600</v>
+        <v>1954100</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>75600</v>
+        <v>1649100</v>
       </c>
       <c r="G22" s="14" t="n">
-        <v>0</v>
+        <v>305000</v>
       </c>
     </row>
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="9" t="inlineStr">
         <is>
-          <t>浩鑫</t>
+          <t>強強滾</t>
         </is>
       </c>
       <c r="B23" s="10" t="n">
-        <v>7379000</v>
+        <v>1660100</v>
       </c>
       <c r="C23" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>5424900</v>
+        <v>1507500</v>
       </c>
       <c r="E23" s="10" t="n">
-        <v>1954100</v>
+        <v>152600</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>1649100</v>
-      </c>
-      <c r="G23" s="14" t="n">
-        <v>305000</v>
+        <v>201600</v>
+      </c>
+      <c r="G23" s="12" t="n">
+        <v>-49000</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>強強滾</t>
+          <t>百富</t>
         </is>
       </c>
       <c r="B24" s="10" t="n">
-        <v>1662100</v>
+        <v>893000</v>
       </c>
       <c r="C24" s="11" t="n">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>1507500</v>
+        <v>730000</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>154600</v>
+        <v>195400</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>203600</v>
-      </c>
-      <c r="G24" s="13" t="n">
-        <v>-49000</v>
+        <v>149400</v>
+      </c>
+      <c r="G24" s="14" t="n">
+        <v>46000</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="9" t="inlineStr">
         <is>
-          <t>百富</t>
+          <t>法拉利</t>
         </is>
       </c>
       <c r="B25" s="10" t="n">
-        <v>893000</v>
+        <v>925900</v>
       </c>
       <c r="C25" s="11" t="n">
-        <v>32400</v>
+        <v>0</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>730000</v>
+        <v>673000</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>195400</v>
+        <v>252900</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>149400</v>
+        <v>242900</v>
       </c>
       <c r="G25" s="14" t="n">
-        <v>46000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="26" ht="19.5" customHeight="1">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>法拉利</t>
+          <t>台南彩晶</t>
         </is>
       </c>
       <c r="B26" s="10" t="n">
-        <v>925900</v>
+        <v>1129100</v>
       </c>
       <c r="C26" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>673000</v>
+        <v>909500</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>252900</v>
+        <v>219600</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>242900</v>
-      </c>
-      <c r="G26" s="14" t="n">
-        <v>10000</v>
+        <v>221400</v>
+      </c>
+      <c r="G26" s="12" t="n">
+        <v>-1800</v>
       </c>
     </row>
     <row r="27" ht="19.5" customHeight="1">
       <c r="A27" s="9" t="inlineStr">
         <is>
-          <t>台南彩晶</t>
+          <t>世界盃</t>
         </is>
       </c>
       <c r="B27" s="10" t="n">
-        <v>1129100</v>
+        <v>1382300</v>
       </c>
       <c r="C27" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>909500</v>
+        <v>1361700</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>219600</v>
+        <v>20600</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>221400</v>
-      </c>
-      <c r="G27" s="13" t="n">
-        <v>-1800</v>
+        <v>50600</v>
+      </c>
+      <c r="G27" s="12" t="n">
+        <v>-30000</v>
       </c>
     </row>
     <row r="28" ht="19.5" customHeight="1">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>世界盃</t>
+          <t>星域</t>
         </is>
       </c>
       <c r="B28" s="10" t="n">
-        <v>1382300</v>
+        <v>457200</v>
       </c>
       <c r="C28" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="10" t="n">
-        <v>1361700</v>
+        <v>358900</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>20600</v>
+        <v>98300</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>50600</v>
-      </c>
-      <c r="G28" s="13" t="n">
-        <v>-30000</v>
+        <v>98100</v>
+      </c>
+      <c r="G28" s="14" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="9" t="inlineStr">
         <is>
-          <t>星域</t>
+          <t>伊馬</t>
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>457200</v>
+        <v>1204800</v>
       </c>
       <c r="C29" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>358900</v>
+        <v>1064200</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>98300</v>
+        <v>140600</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>98100</v>
+        <v>125500</v>
       </c>
       <c r="G29" s="14" t="n">
-        <v>200</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>伊馬</t>
+          <t>銀河</t>
         </is>
       </c>
       <c r="B30" s="10" t="n">
-        <v>1204800</v>
+        <v>2231100</v>
       </c>
       <c r="C30" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="10" t="n">
-        <v>1064200</v>
+        <v>1798300</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>140600</v>
+        <v>432800</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>125500</v>
-      </c>
-      <c r="G30" s="14" t="n">
-        <v>15100</v>
+        <v>468700</v>
+      </c>
+      <c r="G30" s="12" t="n">
+        <v>-35900</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="9" t="inlineStr">
         <is>
-          <t>銀河</t>
+          <t>神爺</t>
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>2231100</v>
+        <v>5793600</v>
       </c>
       <c r="C31" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="10" t="n">
-        <v>1798300</v>
+        <v>5305500</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>432800</v>
+        <v>488100</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>468700</v>
-      </c>
-      <c r="G31" s="13" t="n">
-        <v>-35900</v>
+        <v>428100</v>
+      </c>
+      <c r="G31" s="14" t="n">
+        <v>60000</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>神爺</t>
+          <t>升奕</t>
         </is>
       </c>
       <c r="B32" s="10" t="n">
-        <v>5793600</v>
+        <v>507100</v>
       </c>
       <c r="C32" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="10" t="n">
-        <v>5305500</v>
+        <v>499700</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>488100</v>
+        <v>7400</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>428100</v>
-      </c>
-      <c r="G32" s="14" t="n">
-        <v>60000</v>
+        <v>15900</v>
+      </c>
+      <c r="G32" s="12" t="n">
+        <v>-8500</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="9" t="inlineStr">
         <is>
-          <t>升奕</t>
+          <t>金傑克測試</t>
         </is>
       </c>
       <c r="B33" s="10" t="n">
-        <v>507100</v>
+        <v>0</v>
       </c>
       <c r="C33" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>499700</v>
+        <v>0</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>15900</v>
-      </c>
-      <c r="G33" s="13" t="n">
-        <v>-8500</v>
+        <v>0</v>
+      </c>
+      <c r="G33" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>金傑克測試</t>
+          <t>億吉棒</t>
         </is>
       </c>
       <c r="B34" s="10" t="n">
-        <v>0</v>
+        <v>963900</v>
       </c>
       <c r="C34" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>0</v>
+        <v>991500</v>
+      </c>
+      <c r="E34" s="13" t="n">
+        <v>-27600</v>
+      </c>
+      <c r="F34" s="13" t="n">
+        <v>-48300</v>
       </c>
       <c r="G34" s="14" t="n">
-        <v>0</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="9" t="inlineStr">
         <is>
-          <t>億吉棒</t>
+          <t>金傑克金孔雀</t>
         </is>
       </c>
       <c r="B35" s="10" t="n">
-        <v>963900</v>
+        <v>1643900</v>
       </c>
       <c r="C35" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="10" t="n">
-        <v>991500</v>
-      </c>
-      <c r="E35" s="12" t="n">
-        <v>-27600</v>
-      </c>
-      <c r="F35" s="12" t="n">
-        <v>-48300</v>
+        <v>1314700</v>
+      </c>
+      <c r="E35" s="10" t="n">
+        <v>329200</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>241100</v>
       </c>
       <c r="G35" s="14" t="n">
-        <v>20700</v>
+        <v>88100</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>金傑克金孔雀</t>
+          <t>金多多</t>
         </is>
       </c>
       <c r="B36" s="10" t="n">
-        <v>1643900</v>
+        <v>356000</v>
       </c>
       <c r="C36" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D36" s="10" t="n">
-        <v>1314700</v>
+        <v>350000</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>329200</v>
+        <v>6000</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>241100</v>
+        <v>6000</v>
       </c>
       <c r="G36" s="14" t="n">
-        <v>88100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1">
       <c r="A37" s="9" t="inlineStr">
         <is>
-          <t>金多多</t>
+          <t>金潮</t>
         </is>
       </c>
       <c r="B37" s="10" t="n">
-        <v>356000</v>
+        <v>387700</v>
       </c>
       <c r="C37" s="11" t="n">
-        <v>0</v>
+        <v>57300</v>
       </c>
       <c r="D37" s="10" t="n">
-        <v>350000</v>
-      </c>
-      <c r="E37" s="10" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F37" s="10" t="n">
-        <v>6000</v>
+        <v>500000</v>
+      </c>
+      <c r="E37" s="13" t="n">
+        <v>-55000</v>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>-68500</v>
       </c>
       <c r="G37" s="14" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>金潮</t>
+          <t>天堡</t>
         </is>
       </c>
       <c r="B38" s="10" t="n">
-        <v>387700</v>
+        <v>489100</v>
       </c>
       <c r="C38" s="11" t="n">
-        <v>57300</v>
+        <v>0</v>
       </c>
       <c r="D38" s="10" t="n">
-        <v>500000</v>
-      </c>
-      <c r="E38" s="12" t="n">
-        <v>-55000</v>
-      </c>
-      <c r="F38" s="12" t="n">
-        <v>-68500</v>
-      </c>
-      <c r="G38" s="14" t="n">
-        <v>13500</v>
+        <v>455400</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>33700</v>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>54700</v>
+      </c>
+      <c r="G38" s="12" t="n">
+        <v>-21000</v>
       </c>
     </row>
     <row r="39" ht="19.5" customHeight="1">
       <c r="A39" s="9" t="inlineStr">
         <is>
-          <t>天堡</t>
+          <t>裕誠</t>
         </is>
       </c>
       <c r="B39" s="10" t="n">
-        <v>489100</v>
+        <v>1023200</v>
       </c>
       <c r="C39" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="10" t="n">
-        <v>455400</v>
+        <v>675500</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>33700</v>
+        <v>347700</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>54700</v>
-      </c>
-      <c r="G39" s="13" t="n">
-        <v>-21000</v>
+        <v>346700</v>
+      </c>
+      <c r="G39" s="14" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="40" ht="19.5" customHeight="1">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>裕誠</t>
+          <t>寶貝熊</t>
         </is>
       </c>
       <c r="B40" s="10" t="n">
-        <v>1023200</v>
+        <v>1383800</v>
       </c>
       <c r="C40" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D40" s="10" t="n">
-        <v>675500</v>
-      </c>
-      <c r="E40" s="10" t="n">
-        <v>347700</v>
+        <v>1392400</v>
+      </c>
+      <c r="E40" s="13" t="n">
+        <v>-8600</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>346700</v>
-      </c>
-      <c r="G40" s="14" t="n">
-        <v>1000</v>
+        <v>18400</v>
+      </c>
+      <c r="G40" s="12" t="n">
+        <v>-27000</v>
       </c>
     </row>
     <row r="41" ht="19.5" customHeight="1">
       <c r="A41" s="9" t="inlineStr">
         <is>
-          <t>寶貝熊</t>
+          <t>雅虎</t>
         </is>
       </c>
       <c r="B41" s="10" t="n">
-        <v>1383800</v>
+        <v>582000</v>
       </c>
       <c r="C41" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="10" t="n">
-        <v>1392400</v>
-      </c>
-      <c r="E41" s="12" t="n">
-        <v>-8600</v>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>18400</v>
-      </c>
-      <c r="G41" s="13" t="n">
-        <v>-27000</v>
+        <v>734500</v>
+      </c>
+      <c r="E41" s="13" t="n">
+        <v>-152500</v>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>-130300</v>
+      </c>
+      <c r="G41" s="12" t="n">
+        <v>-22200</v>
       </c>
     </row>
     <row r="42" ht="19.5" customHeight="1">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>雅虎</t>
+          <t>米其樂</t>
         </is>
       </c>
       <c r="B42" s="10" t="n">
-        <v>582000</v>
+        <v>1881000</v>
       </c>
       <c r="C42" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="10" t="n">
-        <v>734500</v>
-      </c>
-      <c r="E42" s="12" t="n">
-        <v>-152500</v>
-      </c>
-      <c r="F42" s="12" t="n">
-        <v>-130300</v>
-      </c>
-      <c r="G42" s="13" t="n">
-        <v>-22200</v>
+        <v>1951100</v>
+      </c>
+      <c r="E42" s="13" t="n">
+        <v>-70100</v>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>-67600</v>
+      </c>
+      <c r="G42" s="12" t="n">
+        <v>-2500</v>
       </c>
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="9" t="inlineStr">
         <is>
-          <t>米其樂</t>
+          <t>新球</t>
         </is>
       </c>
       <c r="B43" s="10" t="n">
-        <v>1881000</v>
+        <v>2591200</v>
       </c>
       <c r="C43" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D43" s="10" t="n">
-        <v>1951100</v>
-      </c>
-      <c r="E43" s="12" t="n">
-        <v>-70100</v>
-      </c>
-      <c r="F43" s="12" t="n">
-        <v>-67600</v>
-      </c>
-      <c r="G43" s="13" t="n">
-        <v>-2500</v>
+        <v>2399000</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>192200</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>62700</v>
+      </c>
+      <c r="G43" s="14" t="n">
+        <v>129500</v>
       </c>
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>新球</t>
+          <t>H2O</t>
         </is>
       </c>
       <c r="B44" s="10" t="n">
-        <v>2591200</v>
+        <v>1042200</v>
       </c>
       <c r="C44" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D44" s="10" t="n">
-        <v>2399000</v>
+        <v>1008200</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>192200</v>
+        <v>34000</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>62700</v>
+        <v>14600</v>
       </c>
       <c r="G44" s="14" t="n">
-        <v>129500</v>
+        <v>19400</v>
       </c>
     </row>
     <row r="45" ht="19.5" customHeight="1">
       <c r="A45" s="9" t="inlineStr">
         <is>
-          <t>H2O</t>
+          <t>檸檬樹</t>
         </is>
       </c>
       <c r="B45" s="10" t="n">
-        <v>1042200</v>
+        <v>634000</v>
       </c>
       <c r="C45" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="10" t="n">
-        <v>1008200</v>
+        <v>368500</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>34000</v>
+        <v>265500</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>14600</v>
+        <v>237000</v>
       </c>
       <c r="G45" s="14" t="n">
-        <v>19400</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="46" ht="19.5" customHeight="1">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>檸檬樹</t>
+          <t>太陽城</t>
         </is>
       </c>
       <c r="B46" s="10" t="n">
-        <v>634000</v>
+        <v>589500</v>
       </c>
       <c r="C46" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="10" t="n">
-        <v>368500</v>
+        <v>563500</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>265500</v>
+        <v>26000</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>237000</v>
-      </c>
-      <c r="G46" s="14" t="n">
-        <v>28500</v>
+        <v>26500</v>
+      </c>
+      <c r="G46" s="12" t="n">
+        <v>-500</v>
       </c>
     </row>
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="9" t="inlineStr">
         <is>
-          <t>太陽城</t>
+          <t>鉅泰</t>
         </is>
       </c>
       <c r="B47" s="10" t="n">
-        <v>589500</v>
+        <v>689900</v>
       </c>
       <c r="C47" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D47" s="10" t="n">
-        <v>563500</v>
-      </c>
-      <c r="E47" s="10" t="n">
-        <v>26000</v>
-      </c>
-      <c r="F47" s="10" t="n">
-        <v>26500</v>
-      </c>
-      <c r="G47" s="13" t="n">
-        <v>-500</v>
+        <v>765500</v>
+      </c>
+      <c r="E47" s="13" t="n">
+        <v>-75600</v>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>-108600</v>
+      </c>
+      <c r="G47" s="14" t="n">
+        <v>33000</v>
       </c>
     </row>
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>鉅泰</t>
+          <t>黃金</t>
         </is>
       </c>
       <c r="B48" s="10" t="n">
-        <v>689900</v>
+        <v>457700</v>
       </c>
       <c r="C48" s="11" t="n">
-        <v>0</v>
+        <v>87900</v>
       </c>
       <c r="D48" s="10" t="n">
-        <v>765500</v>
-      </c>
-      <c r="E48" s="12" t="n">
-        <v>-75600</v>
-      </c>
-      <c r="F48" s="12" t="n">
-        <v>-108600</v>
+        <v>361500</v>
+      </c>
+      <c r="E48" s="10" t="n">
+        <v>184100</v>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>144100</v>
       </c>
       <c r="G48" s="14" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" s="9" t="inlineStr">
         <is>
-          <t>黃金</t>
+          <t>遊戲男孩</t>
         </is>
       </c>
       <c r="B49" s="10" t="n">
-        <v>457700</v>
+        <v>1041200</v>
       </c>
       <c r="C49" s="11" t="n">
-        <v>87900</v>
+        <v>0</v>
       </c>
       <c r="D49" s="10" t="n">
-        <v>361500</v>
+        <v>681200</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>184100</v>
+        <v>360000</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>144100</v>
+        <v>329000</v>
       </c>
       <c r="G49" s="14" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>遊戲男孩</t>
+          <t>尚興</t>
         </is>
       </c>
       <c r="B50" s="10" t="n">
-        <v>1041200</v>
+        <v>1307500</v>
       </c>
       <c r="C50" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="10" t="n">
-        <v>681200</v>
+        <v>1127500</v>
       </c>
       <c r="E50" s="10" t="n">
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="F50" s="10" t="n">
-        <v>329000</v>
+        <v>178500</v>
       </c>
       <c r="G50" s="14" t="n">
-        <v>31000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="51" ht="19.5" customHeight="1">
       <c r="A51" s="9" t="inlineStr">
         <is>
-          <t>尚興</t>
+          <t>金享樂</t>
         </is>
       </c>
       <c r="B51" s="10" t="n">
-        <v>1307500</v>
+        <v>577000</v>
       </c>
       <c r="C51" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D51" s="10" t="n">
-        <v>1127500</v>
+        <v>360000</v>
       </c>
       <c r="E51" s="10" t="n">
-        <v>180000</v>
+        <v>217000</v>
       </c>
       <c r="F51" s="10" t="n">
-        <v>178500</v>
+        <v>210000</v>
       </c>
       <c r="G51" s="14" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>金享樂</t>
+          <t>財富寶</t>
         </is>
       </c>
       <c r="B52" s="10" t="n">
-        <v>577000</v>
+        <v>485300</v>
       </c>
       <c r="C52" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="10" t="n">
-        <v>360000</v>
+        <v>447500</v>
       </c>
       <c r="E52" s="10" t="n">
-        <v>217000</v>
-      </c>
-      <c r="F52" s="10" t="n">
-        <v>210000</v>
+        <v>37800</v>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>-1200</v>
       </c>
       <c r="G52" s="14" t="n">
-        <v>7000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>財富寶</t>
+          <t>帝濠</t>
         </is>
       </c>
       <c r="B53" s="10" t="n">
-        <v>485300</v>
+        <v>678900</v>
       </c>
       <c r="C53" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D53" s="10" t="n">
-        <v>447500</v>
-      </c>
-      <c r="E53" s="10" t="n">
-        <v>37800</v>
-      </c>
-      <c r="F53" s="12" t="n">
-        <v>-1200</v>
+        <v>807500</v>
+      </c>
+      <c r="E53" s="13" t="n">
+        <v>-128600</v>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>-128600</v>
       </c>
       <c r="G53" s="14" t="n">
-        <v>39000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="19.5" customHeight="1">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>帝濠</t>
+          <t>鳳山大八卦</t>
         </is>
       </c>
       <c r="B54" s="10" t="n">
-        <v>678900</v>
+        <v>1048100</v>
       </c>
       <c r="C54" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D54" s="10" t="n">
-        <v>807500</v>
-      </c>
-      <c r="E54" s="12" t="n">
-        <v>-128600</v>
-      </c>
-      <c r="F54" s="12" t="n">
-        <v>-128600</v>
-      </c>
-      <c r="G54" s="14" t="n">
-        <v>0</v>
+        <v>1004200</v>
+      </c>
+      <c r="E54" s="10" t="n">
+        <v>43900</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>54300</v>
+      </c>
+      <c r="G54" s="12" t="n">
+        <v>-10400</v>
       </c>
     </row>
     <row r="55" ht="19.5" customHeight="1">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>鳳山大八卦</t>
+          <t>富貴萊</t>
         </is>
       </c>
       <c r="B55" s="10" t="n">
-        <v>1048100</v>
+        <v>2351000</v>
       </c>
       <c r="C55" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D55" s="10" t="n">
-        <v>1004200</v>
+        <v>1844800</v>
       </c>
       <c r="E55" s="10" t="n">
-        <v>43900</v>
+        <v>506200</v>
       </c>
       <c r="F55" s="10" t="n">
-        <v>54300</v>
-      </c>
-      <c r="G55" s="13" t="n">
-        <v>-10400</v>
+        <v>556200</v>
+      </c>
+      <c r="G55" s="12" t="n">
+        <v>-50000</v>
       </c>
     </row>
     <row r="56" ht="19.5" customHeight="1">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>富貴萊</t>
+          <t>金寶山</t>
         </is>
       </c>
       <c r="B56" s="10" t="n">
-        <v>2351000</v>
+        <v>387000</v>
       </c>
       <c r="C56" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D56" s="10" t="n">
-        <v>1844800</v>
+        <v>346000</v>
       </c>
       <c r="E56" s="10" t="n">
-        <v>506200</v>
+        <v>41000</v>
       </c>
       <c r="F56" s="10" t="n">
-        <v>556200</v>
-      </c>
-      <c r="G56" s="13" t="n">
-        <v>-50000</v>
+        <v>54000</v>
+      </c>
+      <c r="G56" s="12" t="n">
+        <v>-13000</v>
       </c>
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>金寶山</t>
+          <t>阿帕契</t>
         </is>
       </c>
       <c r="B57" s="10" t="n">
-        <v>387000</v>
+        <v>939200</v>
       </c>
       <c r="C57" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D57" s="10" t="n">
-        <v>346000</v>
+        <v>609100</v>
       </c>
       <c r="E57" s="10" t="n">
-        <v>41000</v>
+        <v>330100</v>
       </c>
       <c r="F57" s="10" t="n">
-        <v>54000</v>
-      </c>
-      <c r="G57" s="13" t="n">
-        <v>-13000</v>
+        <v>321600</v>
+      </c>
+      <c r="G57" s="14" t="n">
+        <v>8500</v>
       </c>
     </row>
     <row r="58" ht="19.5" customHeight="1">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>阿帕契</t>
+          <t>柚子園</t>
         </is>
       </c>
       <c r="B58" s="10" t="n">
-        <v>939200</v>
+        <v>1800000</v>
       </c>
       <c r="C58" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D58" s="10" t="n">
-        <v>609100</v>
+        <v>1695300</v>
       </c>
       <c r="E58" s="10" t="n">
-        <v>330100</v>
-      </c>
-      <c r="F58" s="10" t="n">
-        <v>321600</v>
+        <v>104700</v>
+      </c>
+      <c r="F58" s="13" t="n">
+        <v>-5900</v>
       </c>
       <c r="G58" s="14" t="n">
-        <v>8500</v>
+        <v>110600</v>
       </c>
     </row>
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" s="9" t="inlineStr">
         <is>
-          <t>柚子園</t>
+          <t>阿里巴巴</t>
         </is>
       </c>
       <c r="B59" s="10" t="n">
-        <v>1800000</v>
+        <v>0</v>
       </c>
       <c r="C59" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D59" s="10" t="n">
-        <v>1695300</v>
+        <v>0</v>
       </c>
       <c r="E59" s="10" t="n">
-        <v>104700</v>
-      </c>
-      <c r="F59" s="12" t="n">
-        <v>-5900</v>
+        <v>0</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G59" s="14" t="n">
-        <v>110600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" ht="19.5" customHeight="1">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>阿里巴巴</t>
+          <t>里昂</t>
         </is>
       </c>
       <c r="B60" s="10" t="n">
@@ -2050,248 +2050,248 @@
     <row r="61" ht="19.5" customHeight="1">
       <c r="A61" s="9" t="inlineStr">
         <is>
-          <t>里昂</t>
+          <t>領航者</t>
         </is>
       </c>
       <c r="B61" s="10" t="n">
-        <v>0</v>
+        <v>193400</v>
       </c>
       <c r="C61" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D61" s="10" t="n">
-        <v>0</v>
+        <v>153700</v>
       </c>
       <c r="E61" s="10" t="n">
-        <v>0</v>
+        <v>39700</v>
       </c>
       <c r="F61" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="14" t="n">
-        <v>0</v>
+        <v>40300</v>
+      </c>
+      <c r="G61" s="12" t="n">
+        <v>-600</v>
       </c>
     </row>
     <row r="62" ht="19.5" customHeight="1">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>領航者</t>
+          <t>B1風城</t>
         </is>
       </c>
       <c r="B62" s="10" t="n">
-        <v>193400</v>
+        <v>4571600</v>
       </c>
       <c r="C62" s="11" t="n">
-        <v>0</v>
+        <v>2031000</v>
       </c>
       <c r="D62" s="10" t="n">
-        <v>153700</v>
+        <v>5596000</v>
       </c>
       <c r="E62" s="10" t="n">
-        <v>39700</v>
+        <v>1006600</v>
       </c>
       <c r="F62" s="10" t="n">
-        <v>40300</v>
-      </c>
-      <c r="G62" s="13" t="n">
-        <v>-600</v>
+        <v>890600</v>
+      </c>
+      <c r="G62" s="14" t="n">
+        <v>116000</v>
       </c>
     </row>
     <row r="63" ht="19.5" customHeight="1">
       <c r="A63" s="9" t="inlineStr">
         <is>
-          <t>B1風城</t>
+          <t>鴻鷹</t>
         </is>
       </c>
       <c r="B63" s="10" t="n">
-        <v>4571600</v>
+        <v>1681200</v>
       </c>
       <c r="C63" s="11" t="n">
-        <v>2031000</v>
+        <v>0</v>
       </c>
       <c r="D63" s="10" t="n">
-        <v>5596000</v>
+        <v>1533000</v>
       </c>
       <c r="E63" s="10" t="n">
-        <v>1006600</v>
+        <v>148200</v>
       </c>
       <c r="F63" s="10" t="n">
-        <v>890600</v>
-      </c>
-      <c r="G63" s="14" t="n">
-        <v>116000</v>
+        <v>156500</v>
+      </c>
+      <c r="G63" s="12" t="n">
+        <v>-8300</v>
       </c>
     </row>
     <row r="64" ht="19.5" customHeight="1">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>鴻鷹</t>
+          <t>大小</t>
         </is>
       </c>
       <c r="B64" s="10" t="n">
-        <v>1681200</v>
+        <v>1695500</v>
       </c>
       <c r="C64" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D64" s="10" t="n">
-        <v>1533000</v>
+        <v>1054000</v>
       </c>
       <c r="E64" s="10" t="n">
-        <v>148200</v>
+        <v>641500</v>
       </c>
       <c r="F64" s="10" t="n">
-        <v>156500</v>
-      </c>
-      <c r="G64" s="13" t="n">
-        <v>-8300</v>
+        <v>611500</v>
+      </c>
+      <c r="G64" s="14" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="65" ht="19.5" customHeight="1">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>大小</t>
+          <t>千樂</t>
         </is>
       </c>
       <c r="B65" s="10" t="n">
-        <v>1695500</v>
+        <v>873000</v>
       </c>
       <c r="C65" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D65" s="10" t="n">
-        <v>1054000</v>
+        <v>585000</v>
       </c>
       <c r="E65" s="10" t="n">
-        <v>641500</v>
+        <v>288000</v>
       </c>
       <c r="F65" s="10" t="n">
-        <v>611500</v>
+        <v>210000</v>
       </c>
       <c r="G65" s="14" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="66" ht="19.5" customHeight="1">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>千樂</t>
+          <t>源福</t>
         </is>
       </c>
       <c r="B66" s="10" t="n">
-        <v>873000</v>
+        <v>649500</v>
       </c>
       <c r="C66" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D66" s="10" t="n">
-        <v>585000</v>
+        <v>474500</v>
       </c>
       <c r="E66" s="10" t="n">
-        <v>288000</v>
+        <v>175000</v>
       </c>
       <c r="F66" s="10" t="n">
-        <v>210000</v>
+        <v>167000</v>
       </c>
       <c r="G66" s="14" t="n">
-        <v>78000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="67" ht="19.5" customHeight="1">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>源福</t>
+          <t>黑桃</t>
         </is>
       </c>
       <c r="B67" s="10" t="n">
-        <v>649500</v>
+        <v>0</v>
       </c>
       <c r="C67" s="11" t="n">
-        <v>0</v>
+        <v>3186000</v>
       </c>
       <c r="D67" s="10" t="n">
-        <v>474500</v>
+        <v>1968000</v>
       </c>
       <c r="E67" s="10" t="n">
-        <v>175000</v>
+        <v>1218000</v>
       </c>
       <c r="F67" s="10" t="n">
-        <v>167000</v>
+        <v>1172000</v>
       </c>
       <c r="G67" s="14" t="n">
-        <v>8000</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="68" ht="19.5" customHeight="1">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>黑桃</t>
+          <t>金傑克太陽</t>
         </is>
       </c>
       <c r="B68" s="10" t="n">
-        <v>0</v>
+        <v>771500</v>
       </c>
       <c r="C68" s="11" t="n">
-        <v>3186000</v>
+        <v>0</v>
       </c>
       <c r="D68" s="10" t="n">
-        <v>1968000</v>
+        <v>604500</v>
       </c>
       <c r="E68" s="10" t="n">
-        <v>1218000</v>
+        <v>167000</v>
       </c>
       <c r="F68" s="10" t="n">
-        <v>1172000</v>
-      </c>
-      <c r="G68" s="14" t="n">
-        <v>46000</v>
+        <v>200000</v>
+      </c>
+      <c r="G68" s="12" t="n">
+        <v>-33000</v>
       </c>
     </row>
     <row r="69" ht="19.5" customHeight="1">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>金傑克太陽</t>
+          <t>藍語</t>
         </is>
       </c>
       <c r="B69" s="10" t="n">
-        <v>771500</v>
+        <v>17400</v>
       </c>
       <c r="C69" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D69" s="10" t="n">
-        <v>604500</v>
+        <v>8100</v>
       </c>
       <c r="E69" s="10" t="n">
-        <v>167000</v>
+        <v>9300</v>
       </c>
       <c r="F69" s="10" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G69" s="13" t="n">
-        <v>-33000</v>
+        <v>9300</v>
+      </c>
+      <c r="G69" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="19.5" customHeight="1">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>藍語</t>
+          <t>五月天</t>
         </is>
       </c>
       <c r="B70" s="10" t="n">
-        <v>17400</v>
+        <v>163300</v>
       </c>
       <c r="C70" s="11" t="n">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="D70" s="10" t="n">
-        <v>8100</v>
+        <v>34700</v>
       </c>
       <c r="E70" s="10" t="n">
-        <v>9300</v>
+        <v>143900</v>
       </c>
       <c r="F70" s="10" t="n">
-        <v>9300</v>
+        <v>143900</v>
       </c>
       <c r="G70" s="14" t="n">
         <v>0</v>
@@ -2300,342 +2300,342 @@
     <row r="71" ht="19.5" customHeight="1">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>五月天</t>
+          <t>金球獎</t>
         </is>
       </c>
       <c r="B71" s="10" t="n">
-        <v>163300</v>
+        <v>1219000</v>
       </c>
       <c r="C71" s="11" t="n">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="D71" s="10" t="n">
-        <v>34700</v>
+        <v>960200</v>
       </c>
       <c r="E71" s="10" t="n">
-        <v>143900</v>
+        <v>258800</v>
       </c>
       <c r="F71" s="10" t="n">
-        <v>143900</v>
+        <v>249400</v>
       </c>
       <c r="G71" s="14" t="n">
-        <v>0</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="72" ht="19.5" customHeight="1">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>金球獎</t>
+          <t>大金</t>
         </is>
       </c>
       <c r="B72" s="10" t="n">
-        <v>1219000</v>
+        <v>1215600</v>
       </c>
       <c r="C72" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D72" s="10" t="n">
-        <v>960200</v>
+        <v>872100</v>
       </c>
       <c r="E72" s="10" t="n">
-        <v>258800</v>
+        <v>343500</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>249400</v>
-      </c>
-      <c r="G72" s="14" t="n">
-        <v>9400</v>
+        <v>364800</v>
+      </c>
+      <c r="G72" s="12" t="n">
+        <v>-21300</v>
       </c>
     </row>
     <row r="73" ht="19.5" customHeight="1">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>大金</t>
+          <t>聚豪</t>
         </is>
       </c>
       <c r="B73" s="10" t="n">
-        <v>1215600</v>
+        <v>3208000</v>
       </c>
       <c r="C73" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>872100</v>
+        <v>2317900</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>343500</v>
+        <v>890100</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>364800</v>
-      </c>
-      <c r="G73" s="13" t="n">
-        <v>-21300</v>
+        <v>851500</v>
+      </c>
+      <c r="G73" s="14" t="n">
+        <v>38600</v>
       </c>
     </row>
     <row r="74" ht="19.5" customHeight="1">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>聚豪</t>
+          <t>夏夏叫</t>
         </is>
       </c>
       <c r="B74" s="10" t="n">
-        <v>3208000</v>
+        <v>1752500</v>
       </c>
       <c r="C74" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>2317900</v>
+        <v>1390000</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>890100</v>
+        <v>362500</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>851500</v>
+        <v>337000</v>
       </c>
       <c r="G74" s="14" t="n">
-        <v>38600</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="75" ht="19.5" customHeight="1">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>夏夏叫</t>
+          <t>棋祥</t>
         </is>
       </c>
       <c r="B75" s="10" t="n">
-        <v>1752500</v>
+        <v>1156900</v>
       </c>
       <c r="C75" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>1390000</v>
-      </c>
-      <c r="E75" s="10" t="n">
-        <v>362500</v>
+        <v>1221800</v>
+      </c>
+      <c r="E75" s="13" t="n">
+        <v>-64900</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>337000</v>
-      </c>
-      <c r="G75" s="14" t="n">
-        <v>25500</v>
+        <v>49100</v>
+      </c>
+      <c r="G75" s="12" t="n">
+        <v>-114000</v>
       </c>
     </row>
     <row r="76" ht="19.5" customHeight="1">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>棋祥</t>
+          <t>長紅</t>
         </is>
       </c>
       <c r="B76" s="10" t="n">
-        <v>1156900</v>
+        <v>115200</v>
       </c>
       <c r="C76" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>1221800</v>
-      </c>
-      <c r="E76" s="12" t="n">
-        <v>-64900</v>
+        <v>100000</v>
+      </c>
+      <c r="E76" s="10" t="n">
+        <v>15200</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>49100</v>
-      </c>
-      <c r="G76" s="13" t="n">
-        <v>-114000</v>
+        <v>13200</v>
+      </c>
+      <c r="G76" s="14" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="77" ht="19.5" customHeight="1">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>長紅</t>
+          <t>南投大發</t>
         </is>
       </c>
       <c r="B77" s="10" t="n">
-        <v>115200</v>
+        <v>201200</v>
       </c>
       <c r="C77" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D77" s="10" t="n">
-        <v>100000</v>
+        <v>109800</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>15200</v>
+        <v>91400</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>13200</v>
+        <v>89800</v>
       </c>
       <c r="G77" s="14" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="78" ht="19.5" customHeight="1">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>南投大發</t>
+          <t>名間巧虎</t>
         </is>
       </c>
       <c r="B78" s="10" t="n">
-        <v>201200</v>
+        <v>63200</v>
       </c>
       <c r="C78" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>109800</v>
-      </c>
-      <c r="E78" s="10" t="n">
-        <v>91400</v>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>89800</v>
+        <v>76400</v>
+      </c>
+      <c r="E78" s="13" t="n">
+        <v>-13200</v>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>-13200</v>
       </c>
       <c r="G78" s="14" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" ht="19.5" customHeight="1">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>名間巧虎</t>
+          <t>大茂</t>
         </is>
       </c>
       <c r="B79" s="10" t="n">
-        <v>63200</v>
+        <v>84100</v>
       </c>
       <c r="C79" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>76400</v>
-      </c>
-      <c r="E79" s="12" t="n">
-        <v>-13200</v>
-      </c>
-      <c r="F79" s="12" t="n">
-        <v>-13200</v>
-      </c>
-      <c r="G79" s="14" t="n">
-        <v>0</v>
+        <v>92000</v>
+      </c>
+      <c r="E79" s="13" t="n">
+        <v>-7900</v>
+      </c>
+      <c r="F79" s="13" t="n">
+        <v>-4400</v>
+      </c>
+      <c r="G79" s="12" t="n">
+        <v>-3500</v>
       </c>
     </row>
     <row r="80" ht="19.5" customHeight="1">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>大茂</t>
+          <t>台東雅虎</t>
         </is>
       </c>
       <c r="B80" s="10" t="n">
-        <v>84100</v>
+        <v>4500</v>
       </c>
       <c r="C80" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>92000</v>
-      </c>
-      <c r="E80" s="12" t="n">
-        <v>-7900</v>
-      </c>
-      <c r="F80" s="12" t="n">
-        <v>-4400</v>
-      </c>
-      <c r="G80" s="13" t="n">
-        <v>-3500</v>
+        <v>4500</v>
+      </c>
+      <c r="E80" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81" ht="19.5" customHeight="1">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>台東雅虎</t>
+          <t>台東銀河</t>
         </is>
       </c>
       <c r="B81" s="10" t="n">
-        <v>4500</v>
+        <v>687500</v>
       </c>
       <c r="C81" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>4500</v>
+        <v>515200</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>0</v>
+        <v>172300</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="14" t="n">
-        <v>0</v>
+        <v>173500</v>
+      </c>
+      <c r="G81" s="12" t="n">
+        <v>-1200</v>
       </c>
     </row>
     <row r="82" ht="19.5" customHeight="1">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>台東銀河</t>
+          <t>超悟空</t>
         </is>
       </c>
       <c r="B82" s="10" t="n">
-        <v>687500</v>
+        <v>141700</v>
       </c>
       <c r="C82" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>515200</v>
-      </c>
-      <c r="E82" s="10" t="n">
-        <v>172300</v>
-      </c>
-      <c r="F82" s="10" t="n">
-        <v>173500</v>
-      </c>
-      <c r="G82" s="13" t="n">
-        <v>-1200</v>
+        <v>149800</v>
+      </c>
+      <c r="E82" s="13" t="n">
+        <v>-8100</v>
+      </c>
+      <c r="F82" s="13" t="n">
+        <v>-6100</v>
+      </c>
+      <c r="G82" s="12" t="n">
+        <v>-2000</v>
       </c>
     </row>
     <row r="83" ht="19.5" customHeight="1">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>超悟空</t>
+          <t>佰吉興</t>
         </is>
       </c>
       <c r="B83" s="10" t="n">
-        <v>141700</v>
+        <v>27000</v>
       </c>
       <c r="C83" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>149800</v>
-      </c>
-      <c r="E83" s="12" t="n">
-        <v>-8100</v>
-      </c>
-      <c r="F83" s="12" t="n">
-        <v>-6100</v>
-      </c>
-      <c r="G83" s="13" t="n">
-        <v>-2000</v>
+        <v>27000</v>
+      </c>
+      <c r="E83" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" ht="19.5" customHeight="1">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>佰吉興</t>
+          <t>真好味</t>
         </is>
       </c>
       <c r="B84" s="10" t="n">
-        <v>27000</v>
+        <v>16500</v>
       </c>
       <c r="C84" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>27000</v>
+        <v>16500</v>
       </c>
       <c r="E84" s="10" t="n">
         <v>0</v>
@@ -2650,17 +2650,17 @@
     <row r="85" ht="19.5" customHeight="1">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>真好味</t>
+          <t>雙九</t>
         </is>
       </c>
       <c r="B85" s="10" t="n">
-        <v>16500</v>
+        <v>51000</v>
       </c>
       <c r="C85" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>16500</v>
+        <v>51000</v>
       </c>
       <c r="E85" s="10" t="n">
         <v>0</v>
@@ -2675,182 +2675,182 @@
     <row r="86" ht="19.5" customHeight="1">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>雙九</t>
+          <t>六本木</t>
         </is>
       </c>
       <c r="B86" s="10" t="n">
-        <v>51000</v>
+        <v>48900</v>
       </c>
       <c r="C86" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>51000</v>
-      </c>
-      <c r="E86" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" s="10" t="n">
-        <v>0</v>
+        <v>116400</v>
+      </c>
+      <c r="E86" s="13" t="n">
+        <v>-67500</v>
+      </c>
+      <c r="F86" s="13" t="n">
+        <v>-68500</v>
       </c>
       <c r="G86" s="14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87" ht="19.5" customHeight="1">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>六本木</t>
+          <t>信義</t>
         </is>
       </c>
       <c r="B87" s="10" t="n">
-        <v>48900</v>
+        <v>2500</v>
       </c>
       <c r="C87" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>116400</v>
-      </c>
-      <c r="E87" s="12" t="n">
-        <v>-67500</v>
-      </c>
-      <c r="F87" s="12" t="n">
-        <v>-68500</v>
+        <v>2500</v>
+      </c>
+      <c r="E87" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G87" s="14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" ht="19.5" customHeight="1">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>信義</t>
+          <t>大公</t>
         </is>
       </c>
       <c r="B88" s="10" t="n">
-        <v>2500</v>
+        <v>152100</v>
       </c>
       <c r="C88" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E88" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" s="10" t="n">
-        <v>0</v>
+        <v>270100</v>
+      </c>
+      <c r="E88" s="13" t="n">
+        <v>-118000</v>
+      </c>
+      <c r="F88" s="13" t="n">
+        <v>-122000</v>
       </c>
       <c r="G88" s="14" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="89" ht="19.5" customHeight="1">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>大公</t>
+          <t>長頸鹿</t>
         </is>
       </c>
       <c r="B89" s="10" t="n">
-        <v>152100</v>
+        <v>69500</v>
       </c>
       <c r="C89" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>270100</v>
-      </c>
-      <c r="E89" s="12" t="n">
-        <v>-118000</v>
-      </c>
-      <c r="F89" s="12" t="n">
-        <v>-122000</v>
+        <v>53500</v>
+      </c>
+      <c r="E89" s="10" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F89" s="10" t="n">
+        <v>14000</v>
       </c>
       <c r="G89" s="14" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="90" ht="19.5" customHeight="1">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>長頸鹿</t>
+          <t>台中凱悅</t>
         </is>
       </c>
       <c r="B90" s="10" t="n">
-        <v>69500</v>
+        <v>61900</v>
       </c>
       <c r="C90" s="11" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>53500</v>
+        <v>65900</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="G90" s="14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" ht="19.5" customHeight="1">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>台中凱悅</t>
+          <t>三井</t>
         </is>
       </c>
       <c r="B91" s="10" t="n">
-        <v>61900</v>
+        <v>114800</v>
       </c>
       <c r="C91" s="11" t="n">
-        <v>4000</v>
+        <v>43200</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>65900</v>
+        <v>66000</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>0</v>
+        <v>92000</v>
       </c>
       <c r="F91" s="10" t="n">
         <v>0</v>
       </c>
       <c r="G91" s="14" t="n">
-        <v>0</v>
+        <v>92000</v>
       </c>
     </row>
     <row r="92" ht="19.5" customHeight="1">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>三井</t>
+          <t>獅子王</t>
         </is>
       </c>
       <c r="B92" s="10" t="n">
-        <v>114800</v>
+        <v>0</v>
       </c>
       <c r="C92" s="11" t="n">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>66000</v>
+        <v>0</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>92000</v>
+        <v>0</v>
       </c>
       <c r="F92" s="10" t="n">
         <v>0</v>
       </c>
       <c r="G92" s="14" t="n">
-        <v>92000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" ht="19.5" customHeight="1">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>獅子王</t>
+          <t>屏東凱越</t>
         </is>
       </c>
       <c r="B93" s="10" t="n">
@@ -2875,7 +2875,7 @@
     <row r="94" ht="19.5" customHeight="1">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>屏東凱越</t>
+          <t>富合樂</t>
         </is>
       </c>
       <c r="B94" s="10" t="n">
@@ -2900,7 +2900,7 @@
     <row r="95" ht="19.5" customHeight="1">
       <c r="A95" s="9" t="inlineStr">
         <is>
-          <t>富合樂</t>
+          <t>枋寮好朋友</t>
         </is>
       </c>
       <c r="B95" s="10" t="n">
@@ -2923,53 +2923,28 @@
       </c>
     </row>
     <row r="96" ht="19.5" customHeight="1">
-      <c r="A96" s="9" t="inlineStr">
-        <is>
-          <t>枋寮好朋友</t>
-        </is>
-      </c>
-      <c r="B96" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" ht="19.5" customHeight="1">
-      <c r="A97" s="15" t="inlineStr">
+      <c r="A96" s="15" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
       </c>
-      <c r="B97" s="16" t="n">
-        <v>117906600</v>
-      </c>
-      <c r="C97" s="17" t="n">
+      <c r="B96" s="16" t="n">
+        <v>117124500</v>
+      </c>
+      <c r="C96" s="17" t="n">
         <v>5748600</v>
       </c>
-      <c r="D97" s="16" t="n">
-        <v>105355300</v>
-      </c>
-      <c r="E97" s="16" t="n">
-        <v>18299900</v>
-      </c>
-      <c r="F97" s="16" t="n">
-        <v>17422000</v>
-      </c>
-      <c r="G97" s="18" t="n">
-        <v>877900</v>
+      <c r="D96" s="16" t="n">
+        <v>104540500</v>
+      </c>
+      <c r="E96" s="16" t="n">
+        <v>18332600</v>
+      </c>
+      <c r="F96" s="16" t="n">
+        <v>17434700</v>
+      </c>
+      <c r="G96" s="18" t="n">
+        <v>897900</v>
       </c>
     </row>
   </sheetData>
